--- a/User Assignment Mapping.xlsx
+++ b/User Assignment Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apnasite-my.sharepoint.com/personal/vilas_apnasite_in/Documents/02 MMEAC - Maha Mission Education and Career Council/00 Training/00 Full Time Courses/01 Full Stack/00 Assignments/03 Certificate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\Certificate\certificate-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="11_F25DC773A252ABDACC104895C9DB75845BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70FEF8D9-9910-4A82-A069-B6F8FA646A5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F5EFA-D919-422A-A585-053269D60754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="207">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -404,57 +404,21 @@
     <t>adarshovhal77@gmail.com</t>
   </si>
   <si>
-    <t>patilharsha917@gmail.com</t>
-  </si>
-  <si>
     <t>nileshgaik1212@gmail.com</t>
   </si>
   <si>
     <t>iramsayyad8@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">sagargurav5571@gmail.com </t>
-  </si>
-  <si>
-    <t>vedikakinholkar@gmail.com</t>
-  </si>
-  <si>
-    <t>naitamhitesh5@gmail.com</t>
-  </si>
-  <si>
-    <t>abhishekbabar2003@gmail.com</t>
-  </si>
-  <si>
     <t>shwetag858@gmail.com</t>
   </si>
   <si>
-    <t>ranjitbabar079@gmail.com</t>
-  </si>
-  <si>
     <t>akshay.dhanmane@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">sanjayzade232@gmail.com </t>
-  </si>
-  <si>
-    <t>surajhadavale29@gmail.com</t>
-  </si>
-  <si>
-    <t>akshay1surjuse@gmail.com</t>
-  </si>
-  <si>
-    <t>raveeshrajput255@gmail.com</t>
-  </si>
-  <si>
     <t>mbhosle061@gmail.com</t>
   </si>
   <si>
-    <t>bhushandhongade9762@gmail.com</t>
-  </si>
-  <si>
-    <t>rutujaganjure07@gmail.com</t>
-  </si>
-  <si>
     <t>kaivalyakulkarni155@gmail.com</t>
   </si>
   <si>
@@ -476,15 +440,6 @@
     <t>Naitam</t>
   </si>
   <si>
-    <t>shrutipande776@gmail.com</t>
-  </si>
-  <si>
-    <t>qasimsk9764@gmail.com</t>
-  </si>
-  <si>
-    <t>mrudulamane070@gmail.com</t>
-  </si>
-  <si>
     <t>machhindranathkolape</t>
   </si>
   <si>
@@ -618,6 +573,90 @@
   </si>
   <si>
     <t>designs /186.jpg</t>
+  </si>
+  <si>
+    <t>Renuka</t>
+  </si>
+  <si>
+    <t>Nilesh</t>
+  </si>
+  <si>
+    <t>Dhada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namrata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaivalya </t>
+  </si>
+  <si>
+    <t>Kulakarni</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Bhosale</t>
+  </si>
+  <si>
+    <t>Machindra</t>
+  </si>
+  <si>
+    <t>Kolpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akashay </t>
+  </si>
+  <si>
+    <t>Dhamane</t>
+  </si>
+  <si>
+    <t>Ghyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iram </t>
+  </si>
+  <si>
+    <t>Sayyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyaka </t>
+  </si>
+  <si>
+    <t>Kothmire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adarsh </t>
+  </si>
+  <si>
+    <t>Ovhal</t>
+  </si>
+  <si>
+    <t>Shirish</t>
+  </si>
+  <si>
+    <t>Panchal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garima </t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Anuradha</t>
+  </si>
+  <si>
+    <t>Sahani</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>Mastud</t>
+  </si>
+  <si>
+    <t>Ajikye</t>
   </si>
 </sst>
 </file>
@@ -1270,20 +1309,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW() - 1</f>
         <v>1</v>
@@ -1326,7 +1365,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1346,7 +1385,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1366,7 +1405,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1386,7 +1425,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1406,7 +1445,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1426,7 +1465,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1446,7 +1485,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1466,7 +1505,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1486,7 +1525,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1526,7 +1565,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1546,7 +1585,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1566,7 +1605,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1586,7 +1625,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" thickBot="1">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1606,7 +1645,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" thickBot="1">
+    <row r="17" spans="1:7" ht="15" thickBot="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1626,7 +1665,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" thickBot="1">
+    <row r="18" spans="1:7" ht="15" thickBot="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1666,7 +1705,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" thickBot="1">
+    <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1686,7 +1725,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" thickBot="1">
+    <row r="21" spans="1:7" ht="15" thickBot="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1706,7 +1745,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" thickBot="1">
+    <row r="22" spans="1:7" ht="15" thickBot="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1726,7 +1765,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" thickBot="1">
+    <row r="23" spans="1:7" ht="15" thickBot="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1746,7 +1785,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1766,7 +1805,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" thickBot="1">
+    <row r="25" spans="1:7" ht="15" thickBot="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1786,7 +1825,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" thickBot="1">
+    <row r="26" spans="1:7" ht="15" thickBot="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1806,7 +1845,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" thickBot="1">
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1826,7 +1865,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" thickBot="1">
+    <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1846,7 +1885,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" thickBot="1">
+    <row r="29" spans="1:7" ht="15" thickBot="1">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1866,7 +1905,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" thickBot="1">
+    <row r="30" spans="1:7" ht="15" thickBot="1">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1886,7 +1925,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" thickBot="1">
+    <row r="31" spans="1:7" ht="15" thickBot="1">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1906,7 +1945,7 @@
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" thickBot="1">
+    <row r="32" spans="1:7" ht="15" thickBot="1">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1926,7 +1965,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="24">
+    <row r="33" spans="1:10">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1946,7 +1985,7 @@
       </c>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:10" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1">
       <c r="A34">
         <f t="shared" ref="A34:A65" si="2">ROW() - 1</f>
         <v>33</v>
@@ -1966,7 +2005,7 @@
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:10" thickBot="1">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -1986,7 +2025,7 @@
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:10" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2006,7 +2045,7 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:10" thickBot="1">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2026,7 +2065,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:10" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2046,7 +2085,7 @@
       </c>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:10" thickBot="1">
+    <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2066,7 +2105,7 @@
       </c>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:10" thickBot="1">
+    <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2086,7 +2125,7 @@
       </c>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:10" thickBot="1">
+    <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2149,13 +2188,17 @@
       </c>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.5">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="D44" s="25" t="s">
         <v>118</v>
       </c>
@@ -2165,13 +2208,17 @@
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.5">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D45" s="25" t="s">
         <v>119</v>
       </c>
@@ -2181,13 +2228,17 @@
       </c>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.5">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="D46" s="25" t="s">
         <v>120</v>
       </c>
@@ -2197,12 +2248,17 @@
       </c>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.5">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
       <c r="D47" s="25" t="s">
         <v>121</v>
       </c>
@@ -2212,31 +2268,33 @@
       </c>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.5">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="D48" s="25"/>
       <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v>designs/61.jpg</v>
       </c>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="15.5">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D49" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="3"/>
@@ -2244,14 +2302,19 @@
       </c>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="15.5">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
       <c r="D50" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="3"/>
@@ -2259,95 +2322,89 @@
       </c>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="15.5">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="25" t="s">
-        <v>125</v>
-      </c>
+      <c r="D51" s="25"/>
       <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v>designs/64.jpg</v>
       </c>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="15.5">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="D52" s="25"/>
       <c r="E52" t="str">
         <f t="shared" si="3"/>
         <v>designs/65.jpg</v>
       </c>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="15.5">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="25" t="s">
-        <v>127</v>
-      </c>
+      <c r="D53" s="25"/>
       <c r="E53" t="str">
         <f t="shared" si="3"/>
         <v>designs/66.jpg</v>
       </c>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="15.5">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="25" t="s">
-        <v>128</v>
-      </c>
+      <c r="D54" s="25"/>
       <c r="E54" t="str">
         <f t="shared" si="3"/>
         <v>designs/67.jpg</v>
       </c>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="15.5">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="D55" s="25"/>
       <c r="E55" t="str">
         <f t="shared" si="3"/>
         <v>designs/68.jpg</v>
       </c>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="15.5">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="D56" s="25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="3"/>
@@ -2355,31 +2412,33 @@
       </c>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="15.5">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="D57" s="25"/>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
         <v>designs/70.jpg</v>
       </c>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="15.5">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D58" s="25" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="3"/>
@@ -2387,79 +2446,75 @@
       </c>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="15.5">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="25" t="s">
-        <v>132</v>
-      </c>
+      <c r="D59" s="25"/>
       <c r="E59" t="str">
         <f t="shared" si="3"/>
         <v>designs/72.jpg</v>
       </c>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="15.5">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="D60" s="25"/>
       <c r="E60" t="str">
         <f t="shared" si="3"/>
         <v>designs/73.jpg</v>
       </c>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75">
+    <row r="61" spans="1:7" ht="15.5">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="25" t="s">
-        <v>134</v>
-      </c>
+      <c r="D61" s="25"/>
       <c r="E61" t="str">
         <f t="shared" si="3"/>
         <v>designs/74.jpg</v>
       </c>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="15.5">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="D62" s="25"/>
       <c r="E62" t="str">
         <f t="shared" si="3"/>
         <v>designs/75.jpg</v>
       </c>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="15.5">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="3"/>
+      <c r="B63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D63" s="25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="3"/>
@@ -2467,67 +2522,58 @@
       </c>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="15.5">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="25" t="s">
-        <v>137</v>
-      </c>
+      <c r="D64" s="25"/>
       <c r="E64" t="str">
         <f t="shared" si="3"/>
         <v>designs/77.jpg</v>
       </c>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="15.5">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="25" t="s">
-        <v>138</v>
-      </c>
+      <c r="D65" s="25"/>
       <c r="E65" t="str">
         <f t="shared" si="3"/>
         <v>designs/78.jpg</v>
       </c>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7">
       <c r="A66">
         <f t="shared" ref="A66:A97" si="4">ROW() - 1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E97" si="5">_xlfn.CONCAT("designs/",TEXT(A80,"00"),".jpg")</f>
         <v>designs/79.jpg</v>
       </c>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="15.5">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="5"/>
@@ -2535,16 +2581,16 @@
       </c>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="15.5">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" t="str">
@@ -2553,16 +2599,16 @@
       </c>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="15.5">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" t="str">
@@ -2571,15 +2617,19 @@
       </c>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="15.5">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5" t="s">
-        <v>146</v>
+      <c r="B70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="5"/>
@@ -2587,47 +2637,55 @@
       </c>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
+    <row r="71" spans="1:7" ht="15.5">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="B71" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="5"/>
       <c r="E71" t="str">
         <f t="shared" si="5"/>
         <v>designs/84.jpg</v>
       </c>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="15.5">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="26" t="s">
-        <v>148</v>
-      </c>
+      <c r="B72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="26"/>
       <c r="E72" t="str">
         <f t="shared" si="5"/>
         <v>designs/85.jpg</v>
       </c>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="15.5">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="3"/>
+      <c r="B73" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D73" s="27" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="5"/>
@@ -2635,19 +2693,19 @@
       </c>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="15.5">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="5"/>
@@ -2655,13 +2713,13 @@
       </c>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="15.5">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>26</v>
@@ -2672,13 +2730,13 @@
       </c>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="15.5">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>11</v>
@@ -2689,32 +2747,32 @@
       </c>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="15.5">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="15.5">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="5"/>
@@ -2722,16 +2780,16 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="15.5">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="5"/>
@@ -2739,16 +2797,16 @@
       </c>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="15.5">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="5"/>
@@ -2756,16 +2814,16 @@
       </c>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:7" ht="15.5">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="5"/>
@@ -2773,16 +2831,16 @@
       </c>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:7" ht="15.5">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E82" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A96,"00"),".jpg")</f>
@@ -2790,13 +2848,13 @@
       </c>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:7" ht="15.5">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>35</v>
@@ -2807,16 +2865,16 @@
       </c>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75">
+    <row r="84" spans="1:7" ht="15.5">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
@@ -2824,16 +2882,16 @@
       </c>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75">
+    <row r="85" spans="1:7" ht="15.5">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
@@ -2841,16 +2899,16 @@
       </c>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75">
+    <row r="86" spans="1:7" ht="15.5">
       <c r="A86">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
@@ -2858,13 +2916,13 @@
       </c>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:7" ht="15.5">
       <c r="A87">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>35</v>
@@ -2875,16 +2933,16 @@
       </c>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:7" ht="15.5">
       <c r="A88">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
@@ -2892,16 +2950,16 @@
       </c>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:7" ht="15.5">
       <c r="A89">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="5"/>
@@ -2909,16 +2967,16 @@
       </c>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7" ht="15.5">
       <c r="A90">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="5"/>
@@ -2926,46 +2984,58 @@
       </c>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:7">
       <c r="A91">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="3"/>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>205</v>
+      </c>
       <c r="E91" t="str">
         <f t="shared" si="5"/>
         <v>designs/104.jpg</v>
       </c>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="15.5">
       <c r="A92">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="3"/>
+      <c r="B92" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="E92" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT("designs/",TEXT(A106,"00"),".jpg")</f>
         <v>designs/105.jpg</v>
       </c>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="15.5">
       <c r="A93">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="3"/>
+      <c r="B93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="E93" t="str">
         <f t="shared" si="5"/>
         <v>designs/106.jpg</v>
       </c>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7" ht="15.5">
       <c r="A94">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -2978,7 +3048,7 @@
       </c>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7" ht="15.5">
       <c r="A95">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -2991,7 +3061,7 @@
       </c>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:7" ht="15.5">
       <c r="A96">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -3004,7 +3074,7 @@
       </c>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75">
+    <row r="97" spans="1:7" ht="15.5">
       <c r="A97">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -3017,7 +3087,7 @@
       </c>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75">
+    <row r="98" spans="1:7" ht="15.5">
       <c r="A98">
         <f t="shared" ref="A98:A140" si="6">ROW() - 1</f>
         <v>97</v>
@@ -3030,7 +3100,7 @@
       </c>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75">
+    <row r="99" spans="1:7" ht="15.5">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -3043,7 +3113,7 @@
       </c>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7" ht="15.5">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -3056,7 +3126,7 @@
       </c>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75">
+    <row r="101" spans="1:7" ht="15.5">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -3069,7 +3139,7 @@
       </c>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75">
+    <row r="102" spans="1:7" ht="15.5">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -3082,7 +3152,7 @@
       </c>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75">
+    <row r="103" spans="1:7" ht="15.5">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -3095,7 +3165,7 @@
       </c>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75">
+    <row r="104" spans="1:7" ht="15.5">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -3108,7 +3178,7 @@
       </c>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75">
+    <row r="105" spans="1:7" ht="15.5">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -3134,7 +3204,7 @@
       </c>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75">
+    <row r="107" spans="1:7" ht="15.5">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -3147,7 +3217,7 @@
       </c>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75">
+    <row r="108" spans="1:7" ht="15.5">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -3160,7 +3230,7 @@
       </c>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75">
+    <row r="109" spans="1:7" ht="15.5">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -3173,7 +3243,7 @@
       </c>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75">
+    <row r="110" spans="1:7" ht="15.5">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -3186,7 +3256,7 @@
       </c>
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75">
+    <row r="111" spans="1:7" ht="15.5">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -3199,7 +3269,7 @@
       </c>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75">
+    <row r="112" spans="1:7" ht="15.5">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -3212,7 +3282,7 @@
       </c>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75">
+    <row r="113" spans="1:7" ht="15.5">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -3225,7 +3295,7 @@
       </c>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75">
+    <row r="114" spans="1:7" ht="15.5">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -3238,7 +3308,7 @@
       </c>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75">
+    <row r="115" spans="1:7" ht="15.5">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -3251,7 +3321,7 @@
       </c>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75">
+    <row r="116" spans="1:7" ht="15.5">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -3264,7 +3334,7 @@
       </c>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75">
+    <row r="117" spans="1:7" ht="15.5">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -3277,7 +3347,7 @@
       </c>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75">
+    <row r="118" spans="1:7" ht="15.5">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>117</v>
@@ -3290,7 +3360,7 @@
       </c>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75">
+    <row r="119" spans="1:7" ht="15.5">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>118</v>
@@ -3304,7 +3374,7 @@
       </c>
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75">
+    <row r="120" spans="1:7" ht="15.5">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -3318,7 +3388,7 @@
       </c>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75">
+    <row r="121" spans="1:7" ht="15.5">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -3444,7 +3514,7 @@
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E161" si="8">_xlfn.CONCAT("designs/",TEXT(A144,"00"),".jpg")</f>
+        <f t="shared" ref="E130:E159" si="8">_xlfn.CONCAT("designs/",TEXT(A144,"00"),".jpg")</f>
         <v>designs/143.jpg</v>
       </c>
       <c r="G130" s="15"/>
@@ -3475,7 +3545,7 @@
       </c>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:7" ht="17.25">
+    <row r="133" spans="1:7" ht="16.5">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3488,7 +3558,7 @@
       </c>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" ht="17.25">
+    <row r="134" spans="1:7" ht="16.5">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -3501,7 +3571,7 @@
       </c>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5">
+    <row r="135" spans="1:7" ht="15">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -3514,7 +3584,7 @@
       </c>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:7" ht="16.5">
+    <row r="136" spans="1:7" ht="15">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -3527,7 +3597,7 @@
       </c>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5">
+    <row r="137" spans="1:7" ht="15">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -3540,7 +3610,7 @@
       </c>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="1:7" ht="16.5">
+    <row r="138" spans="1:7" ht="15">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -3553,7 +3623,7 @@
       </c>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5">
+    <row r="139" spans="1:7" ht="15">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3566,7 +3636,7 @@
       </c>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="1:7" ht="16.5">
+    <row r="140" spans="1:7" ht="15">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -3579,7 +3649,7 @@
       </c>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="1:7" ht="16.5">
+    <row r="141" spans="1:7" ht="15">
       <c r="A141">
         <f t="shared" ref="A141:A147" si="9">ROW() - 1</f>
         <v>140</v>
@@ -3592,7 +3662,7 @@
       </c>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:7" ht="16.5">
+    <row r="142" spans="1:7" ht="15">
       <c r="A142">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -3605,7 +3675,7 @@
       </c>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" ht="16.5">
+    <row r="143" spans="1:7" ht="15">
       <c r="A143">
         <f t="shared" si="9"/>
         <v>142</v>
@@ -3824,17 +3894,17 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <f t="shared" ref="A161:A180" si="12">ROW() - 1</f>
+        <f t="shared" ref="A161:A173" si="12">ROW() - 1</f>
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G161" s="15"/>
     </row>
@@ -3844,7 +3914,7 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -3854,7 +3924,7 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G163" s="15"/>
     </row>
@@ -3864,7 +3934,7 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G164" s="15"/>
     </row>
@@ -3875,7 +3945,7 @@
       </c>
       <c r="C165" s="24"/>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G165" s="15"/>
     </row>
@@ -3886,7 +3956,7 @@
       </c>
       <c r="C166" s="24"/>
       <c r="E166" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G166" s="15"/>
     </row>
@@ -3897,7 +3967,7 @@
       </c>
       <c r="C167" s="24"/>
       <c r="E167" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G167" s="15"/>
     </row>
@@ -3907,7 +3977,7 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G168" s="15"/>
     </row>
@@ -3918,7 +3988,7 @@
       </c>
       <c r="C169" s="24"/>
       <c r="E169" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G169" s="15"/>
     </row>
@@ -3929,7 +3999,7 @@
       </c>
       <c r="C170" s="24"/>
       <c r="E170" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G170" s="15"/>
     </row>
@@ -3940,7 +4010,7 @@
       </c>
       <c r="C171" s="24"/>
       <c r="E171" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G171" s="15"/>
     </row>
@@ -3951,7 +4021,7 @@
       </c>
       <c r="C172" s="24"/>
       <c r="E172" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G172" s="15"/>
     </row>
@@ -3962,7 +4032,7 @@
       </c>
       <c r="C173" s="24"/>
       <c r="E173" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G173" s="15"/>
     </row>
@@ -3989,14 +4059,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D70" r:id="rId1" xr:uid="{65E0DA27-CF2C-450D-9357-045585F5C359}"/>
-    <hyperlink ref="D71" r:id="rId2" xr:uid="{B2530BCC-C510-4AF0-9FB8-014BBD3C42F6}"/>
-    <hyperlink ref="D72" r:id="rId3" xr:uid="{BAFEE66B-228F-476C-A03E-F516E16C3923}"/>
-    <hyperlink ref="D74" r:id="rId4" xr:uid="{7299F3DB-9941-4949-8C95-5BCF8A7F65EA}"/>
+    <hyperlink ref="D74" r:id="rId1" xr:uid="{7299F3DB-9941-4949-8C95-5BCF8A7F65EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/User Assignment Mapping.xlsx
+++ b/User Assignment Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\Certificate\certificate-assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akank\Desktop\New Projects 2024\certificate ass new\certificate-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F5EFA-D919-422A-A585-053269D60754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A372FA-2F6F-455E-9345-B3BEFBE0BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="267">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -657,6 +655,186 @@
   </si>
   <si>
     <t>Ajikye</t>
+  </si>
+  <si>
+    <t>Dnyaneshwar Patil</t>
+  </si>
+  <si>
+    <t>Harsha Dattatraya Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikrant Khot </t>
+  </si>
+  <si>
+    <t>Rupali Raut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Srikanth Dandewar</t>
+  </si>
+  <si>
+    <t>Manjusha Hinge</t>
+  </si>
+  <si>
+    <t>Rohan Jadhav</t>
+  </si>
+  <si>
+    <t>Siddheshwar Raut</t>
+  </si>
+  <si>
+    <t>Kalpesh Khairnar</t>
+  </si>
+  <si>
+    <t>Sakshi Biradar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapnil Shinde </t>
+  </si>
+  <si>
+    <t>Arti Kadam</t>
+  </si>
+  <si>
+    <t>Rahul Nachan</t>
+  </si>
+  <si>
+    <t>Renuka Khandagale</t>
+  </si>
+  <si>
+    <t>Chetan Sathe</t>
+  </si>
+  <si>
+    <t>Pawan Narwade</t>
+  </si>
+  <si>
+    <t>Rehan Shaikh</t>
+  </si>
+  <si>
+    <t>Nikita Fartade</t>
+  </si>
+  <si>
+    <t>Karan Gupta</t>
+  </si>
+  <si>
+    <t>Sonali Mhaismale</t>
+  </si>
+  <si>
+    <t>Sandeep Gaikwad</t>
+  </si>
+  <si>
+    <t>Diksha fande</t>
+  </si>
+  <si>
+    <t>Manoj Bhamre</t>
+  </si>
+  <si>
+    <t>Atharva Aher</t>
+  </si>
+  <si>
+    <t>Shubham Dale</t>
+  </si>
+  <si>
+    <t>Aishwarya Janmale</t>
+  </si>
+  <si>
+    <t>Saurabh Golhar</t>
+  </si>
+  <si>
+    <t>Aditya Narwade</t>
+  </si>
+  <si>
+    <t>Dnyaneshwar Wankhede</t>
+  </si>
+  <si>
+    <t>Amol Takbhate</t>
+  </si>
+  <si>
+    <t>mrpatilog0908@gmail.com</t>
+  </si>
+  <si>
+    <t>patilharsha917@gmail.com</t>
+  </si>
+  <si>
+    <t>vikrantkhot1608@gmail.com</t>
+  </si>
+  <si>
+    <t>rupaliraut2202@gamil.com</t>
+  </si>
+  <si>
+    <t>s.r.idandewar45@gmail.com</t>
+  </si>
+  <si>
+    <t>manjushahinge607@gmail.com</t>
+  </si>
+  <si>
+    <t>rohanjadhav7799@gmail.com</t>
+  </si>
+  <si>
+    <t>siddheshr08@gmail.com</t>
+  </si>
+  <si>
+    <t>kalpeshkhairnar56@gmail.com</t>
+  </si>
+  <si>
+    <t>sakshibiradar958@gmail.com</t>
+  </si>
+  <si>
+    <t>swarashi1996@gmail.com</t>
+  </si>
+  <si>
+    <t>aartikadam6288@gmail.com</t>
+  </si>
+  <si>
+    <t>nachanrahul8@gmail.com</t>
+  </si>
+  <si>
+    <t>khandagalerenuka31@gmail.com</t>
+  </si>
+  <si>
+    <t>chetansathe33@gmail.com</t>
+  </si>
+  <si>
+    <t>narwadepawan5@gmail.com</t>
+  </si>
+  <si>
+    <t>rehanshaikh902890@gmail.com</t>
+  </si>
+  <si>
+    <t>fartadenikita@gmail.com</t>
+  </si>
+  <si>
+    <t>karangupta98@gmail.com</t>
+  </si>
+  <si>
+    <t>sonalimhaismale9@gmail.com</t>
+  </si>
+  <si>
+    <t>sandeepgaikwad@gmail.com</t>
+  </si>
+  <si>
+    <t>dikshafande13@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj.v.bhamre@gmail.com</t>
+  </si>
+  <si>
+    <t>atharvaaher2019@gmail.com</t>
+  </si>
+  <si>
+    <t>sdale2103@gmail.com</t>
+  </si>
+  <si>
+    <t>aishwaryajanmale2001@gmail.com</t>
+  </si>
+  <si>
+    <t>saurabhgolhar84@gmail.com</t>
+  </si>
+  <si>
+    <t>adityanarwade512@gmail.com</t>
+  </si>
+  <si>
+    <t>dnyaneshwarwankhede390@gmail.com</t>
+  </si>
+  <si>
+    <t>amoltakbhate19@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1309,20 +1487,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.46484375" customWidth="1"/>
+    <col min="6" max="6" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="14.65" thickBot="1">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW() - 1</f>
         <v>1</v>
@@ -1365,7 +1543,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="14.65" thickBot="1">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1385,7 +1563,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1405,7 +1583,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="14.65" thickBot="1">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1425,7 +1603,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="14.65" thickBot="1">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1445,7 +1623,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="14.65" thickBot="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1465,7 +1643,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="8" spans="1:7" ht="14.65" thickBot="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1485,7 +1663,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:7" ht="14.65" thickBot="1">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1505,7 +1683,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="14.65" thickBot="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1525,7 +1703,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
+    <row r="11" spans="1:7" ht="14.65" thickBot="1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1565,7 +1743,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="14.65" thickBot="1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1585,7 +1763,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="14" spans="1:7" ht="14.65" thickBot="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1605,7 +1783,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+    <row r="15" spans="1:7" ht="14.65" thickBot="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1625,7 +1803,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+    <row r="16" spans="1:7" ht="14.65" thickBot="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1645,7 +1823,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1">
+    <row r="17" spans="1:7" ht="14.65" thickBot="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1665,7 +1843,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
+    <row r="18" spans="1:7" ht="14.65" thickBot="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1705,7 +1883,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
+    <row r="20" spans="1:7" ht="14.65" thickBot="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1725,7 +1903,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1745,7 +1923,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1">
+    <row r="22" spans="1:7" ht="14.65" thickBot="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1765,7 +1943,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1">
+    <row r="23" spans="1:7" ht="14.65" thickBot="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1785,7 +1963,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
+    <row r="24" spans="1:7" ht="14.65" thickBot="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1805,7 +1983,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="14.65" thickBot="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1825,7 +2003,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+    <row r="26" spans="1:7" ht="14.65" thickBot="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1845,7 +2023,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+    <row r="27" spans="1:7" ht="14.65" thickBot="1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1865,7 +2043,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1">
+    <row r="28" spans="1:7" ht="14.65" thickBot="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1885,7 +2063,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
+    <row r="29" spans="1:7" ht="14.65" thickBot="1">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1905,7 +2083,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
+    <row r="30" spans="1:7" ht="14.65" thickBot="1">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1925,7 +2103,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1">
+    <row r="31" spans="1:7" ht="14.65" thickBot="1">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1945,7 +2123,7 @@
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
+    <row r="32" spans="1:7" ht="14.65" thickBot="1">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1985,7 +2163,7 @@
       </c>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1">
+    <row r="34" spans="1:10" ht="14.65" thickBot="1">
       <c r="A34">
         <f t="shared" ref="A34:A65" si="2">ROW() - 1</f>
         <v>33</v>
@@ -2005,7 +2183,7 @@
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1">
+    <row r="35" spans="1:10" ht="14.65" thickBot="1">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2025,7 +2203,7 @@
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1">
+    <row r="36" spans="1:10" ht="14.65" thickBot="1">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2045,7 +2223,7 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1">
+    <row r="37" spans="1:10" ht="14.65" thickBot="1">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2065,7 +2243,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1">
+    <row r="38" spans="1:10" ht="14.65" thickBot="1">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2085,7 +2263,7 @@
       </c>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1">
+    <row r="39" spans="1:10" ht="14.65" thickBot="1">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2105,7 +2283,7 @@
       </c>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1">
+    <row r="40" spans="1:10" ht="14.65" thickBot="1">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2125,7 +2303,7 @@
       </c>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1">
+    <row r="41" spans="1:10" ht="14.65" thickBot="1">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2188,7 +2366,7 @@
       </c>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="15.5">
+    <row r="44" spans="1:10" ht="15.4">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2208,7 +2386,7 @@
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="15.5">
+    <row r="45" spans="1:10" ht="15.4">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2228,7 +2406,7 @@
       </c>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="15.5">
+    <row r="46" spans="1:10" ht="15.4">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2248,7 +2426,7 @@
       </c>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:10" ht="15.5">
+    <row r="47" spans="1:10" ht="15.4">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2268,7 +2446,7 @@
       </c>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="15.5">
+    <row r="48" spans="1:10" ht="15.4">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2282,7 +2460,7 @@
       </c>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="15.5">
+    <row r="49" spans="1:7" ht="15.4">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2302,7 +2480,7 @@
       </c>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="15.5">
+    <row r="50" spans="1:7" ht="15.4">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2322,7 +2500,7 @@
       </c>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" ht="15.5">
+    <row r="51" spans="1:7" ht="15.4">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2336,7 +2514,7 @@
       </c>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" ht="15.5">
+    <row r="52" spans="1:7" ht="15.4">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2350,7 +2528,7 @@
       </c>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" ht="15.5">
+    <row r="53" spans="1:7" ht="15.4">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2364,7 +2542,7 @@
       </c>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" ht="15.5">
+    <row r="54" spans="1:7" ht="15.4">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2378,7 +2556,7 @@
       </c>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" ht="15.5">
+    <row r="55" spans="1:7" ht="15.4">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2392,7 +2570,7 @@
       </c>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" ht="15.5">
+    <row r="56" spans="1:7" ht="15.4">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2412,7 +2590,7 @@
       </c>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" ht="15.5">
+    <row r="57" spans="1:7" ht="15.4">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2426,7 +2604,7 @@
       </c>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" ht="15.5">
+    <row r="58" spans="1:7" ht="15.4">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2446,7 +2624,7 @@
       </c>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" ht="15.5">
+    <row r="59" spans="1:7" ht="15.4">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2460,7 +2638,7 @@
       </c>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="15.5">
+    <row r="60" spans="1:7" ht="15.4">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2474,7 +2652,7 @@
       </c>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" ht="15.5">
+    <row r="61" spans="1:7" ht="15.4">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2488,7 +2666,7 @@
       </c>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" ht="15.5">
+    <row r="62" spans="1:7" ht="15.4">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2502,7 +2680,7 @@
       </c>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" ht="15.5">
+    <row r="63" spans="1:7" ht="15.4">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2522,7 +2700,7 @@
       </c>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" ht="15.5">
+    <row r="64" spans="1:7" ht="15.4">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2536,7 +2714,7 @@
       </c>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" ht="15.5">
+    <row r="65" spans="1:7" ht="15.4">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2561,7 +2739,7 @@
       </c>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" ht="15.5">
+    <row r="67" spans="1:7" ht="15.4">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -2581,7 +2759,7 @@
       </c>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" ht="15.5">
+    <row r="68" spans="1:7" ht="15.4">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -2599,7 +2777,7 @@
       </c>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" ht="15.5">
+    <row r="69" spans="1:7" ht="15.4">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -2617,7 +2795,7 @@
       </c>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" ht="15.5">
+    <row r="70" spans="1:7" ht="15.4">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -2637,7 +2815,7 @@
       </c>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" ht="15.5">
+    <row r="71" spans="1:7" ht="15.4">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -2655,7 +2833,7 @@
       </c>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" ht="15.5">
+    <row r="72" spans="1:7" ht="15.4">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -2673,7 +2851,7 @@
       </c>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" ht="15.5">
+    <row r="73" spans="1:7" ht="15.4">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -2693,7 +2871,7 @@
       </c>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" ht="15.5">
+    <row r="74" spans="1:7" ht="15.4">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -2713,7 +2891,7 @@
       </c>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" ht="15.5">
+    <row r="75" spans="1:7" ht="15.4">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -2730,7 +2908,7 @@
       </c>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" ht="15.5">
+    <row r="76" spans="1:7" ht="15.4">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -2747,7 +2925,7 @@
       </c>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" ht="15.5">
+    <row r="77" spans="1:7" ht="15.4">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -2763,7 +2941,7 @@
       </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" ht="15.5">
+    <row r="78" spans="1:7" ht="15.4">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -2780,7 +2958,7 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" ht="15.5">
+    <row r="79" spans="1:7" ht="15.4">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -2797,7 +2975,7 @@
       </c>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" ht="15.5">
+    <row r="80" spans="1:7" ht="15.4">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -2814,7 +2992,7 @@
       </c>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" ht="15.5">
+    <row r="81" spans="1:7" ht="15.4">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -2831,7 +3009,7 @@
       </c>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" ht="15.5">
+    <row r="82" spans="1:7" ht="15.4">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -2848,7 +3026,7 @@
       </c>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" ht="15.5">
+    <row r="83" spans="1:7" ht="15.4">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -2865,7 +3043,7 @@
       </c>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" ht="15.5">
+    <row r="84" spans="1:7" ht="15.4">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -2882,7 +3060,7 @@
       </c>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" ht="15.5">
+    <row r="85" spans="1:7" ht="15.4">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -2899,7 +3077,7 @@
       </c>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" ht="15.5">
+    <row r="86" spans="1:7" ht="15.4">
       <c r="A86">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -2916,7 +3094,7 @@
       </c>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" ht="15.5">
+    <row r="87" spans="1:7" ht="15.4">
       <c r="A87">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -2933,7 +3111,7 @@
       </c>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" ht="15.5">
+    <row r="88" spans="1:7" ht="15.4">
       <c r="A88">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -2950,7 +3128,7 @@
       </c>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" ht="15.5">
+    <row r="89" spans="1:7" ht="15.4">
       <c r="A89">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -2967,7 +3145,7 @@
       </c>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" ht="15.5">
+    <row r="90" spans="1:7" ht="15.4">
       <c r="A90">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -3001,7 +3179,7 @@
       </c>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" ht="15.5">
+    <row r="92" spans="1:7" ht="15.4">
       <c r="A92">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -3018,7 +3196,7 @@
       </c>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" ht="15.5">
+    <row r="93" spans="1:7" ht="15.4">
       <c r="A93">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -3035,157 +3213,216 @@
       </c>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" ht="15.5">
+    <row r="94" spans="1:7" ht="15.4">
       <c r="A94">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B94" s="4"/>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
       <c r="C94" s="3"/>
+      <c r="D94" s="26" t="s">
+        <v>237</v>
+      </c>
       <c r="E94" t="str">
         <f t="shared" si="5"/>
         <v>designs/107.jpg</v>
       </c>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" ht="15.5">
+    <row r="95" spans="1:7" ht="15.4">
       <c r="A95">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B95" s="4"/>
+      <c r="B95" t="s">
+        <v>208</v>
+      </c>
       <c r="C95" s="3"/>
+      <c r="D95" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
         <v>designs/108.jpg</v>
       </c>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" ht="15.5">
+    <row r="96" spans="1:7" ht="15.4">
       <c r="A96">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
       <c r="C96" s="3"/>
+      <c r="D96" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="E96" t="str">
         <f t="shared" si="5"/>
         <v>designs/109.jpg</v>
       </c>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" ht="15.5">
+    <row r="97" spans="1:7" ht="15.4">
       <c r="A97">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B97" s="4"/>
+      <c r="B97" t="s">
+        <v>210</v>
+      </c>
       <c r="C97" s="3"/>
+      <c r="D97" s="26" t="s">
+        <v>240</v>
+      </c>
       <c r="E97" t="str">
         <f t="shared" si="5"/>
         <v>designs/110.jpg</v>
       </c>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" ht="15.5">
+    <row r="98" spans="1:7" ht="15.4">
       <c r="A98">
         <f t="shared" ref="A98:A140" si="6">ROW() - 1</f>
         <v>97</v>
       </c>
-      <c r="B98" s="4"/>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
       <c r="C98" s="3"/>
+      <c r="D98" s="26" t="s">
+        <v>241</v>
+      </c>
       <c r="E98" t="str">
-        <f t="shared" ref="E98:E129" si="7">_xlfn.CONCAT("designs/",TEXT(A112,"00"),".jpg")</f>
+        <f>_xlfn.CONCAT("designs/",TEXT(A112,"00"),".jpg")</f>
         <v>designs/111.jpg</v>
       </c>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="1:7" ht="15.5">
+    <row r="99" spans="1:7" ht="15.4">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="B99" s="4"/>
+      <c r="B99" t="s">
+        <v>212</v>
+      </c>
       <c r="C99" s="3"/>
+      <c r="D99" s="26" t="s">
+        <v>242</v>
+      </c>
       <c r="E99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E99:E129" si="7">_xlfn.CONCAT("designs/",TEXT(A113,"00"),".jpg")</f>
         <v>designs/112.jpg</v>
       </c>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:7" ht="15.5">
+    <row r="100" spans="1:7" ht="15.4">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="B100" s="4"/>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
       <c r="C100" s="3"/>
+      <c r="D100" s="26" t="s">
+        <v>243</v>
+      </c>
       <c r="E100" t="str">
         <f t="shared" si="7"/>
         <v>designs/113.jpg</v>
       </c>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:7" ht="15.5">
+    <row r="101" spans="1:7" ht="15.4">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" t="s">
+        <v>214</v>
+      </c>
       <c r="C101" s="3"/>
+      <c r="D101" s="26" t="s">
+        <v>244</v>
+      </c>
       <c r="E101" t="str">
         <f t="shared" si="7"/>
         <v>designs/114.jpg</v>
       </c>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:7" ht="15.5">
+    <row r="102" spans="1:7" ht="15.4">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" t="s">
+        <v>215</v>
+      </c>
       <c r="C102" s="3"/>
+      <c r="D102" s="26" t="s">
+        <v>245</v>
+      </c>
       <c r="E102" t="str">
         <f t="shared" si="7"/>
         <v>designs/115.jpg</v>
       </c>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:7" ht="15.5">
+    <row r="103" spans="1:7" ht="15.4">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="B103" s="4"/>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
       <c r="C103" s="3"/>
+      <c r="D103" s="26" t="s">
+        <v>246</v>
+      </c>
       <c r="E103" t="str">
         <f t="shared" si="7"/>
         <v>designs/116.jpg</v>
       </c>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:7" ht="15.5">
+    <row r="104" spans="1:7" ht="15.4">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="B104" s="4"/>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
       <c r="C104" s="3"/>
+      <c r="D104" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="E104" t="str">
         <f t="shared" si="7"/>
         <v>designs/117.jpg</v>
       </c>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7" ht="15.5">
+    <row r="105" spans="1:7" ht="15.4">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" t="s">
+        <v>218</v>
+      </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="26" t="s">
+        <v>248</v>
+      </c>
       <c r="E105" t="str">
         <f t="shared" si="7"/>
         <v>designs/118.jpg</v>
@@ -3197,58 +3434,77 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="D106" s="5"/>
+      <c r="B106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>249</v>
+      </c>
       <c r="E106" t="str">
         <f t="shared" si="7"/>
         <v>designs/119.jpg</v>
       </c>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" ht="15.5">
+    <row r="107" spans="1:7" ht="15.4">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="B107" s="4"/>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
       <c r="C107" s="3"/>
+      <c r="D107" s="26" t="s">
+        <v>250</v>
+      </c>
       <c r="E107" t="str">
         <f t="shared" si="7"/>
         <v>designs/120.jpg</v>
       </c>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:7" ht="15.5">
+    <row r="108" spans="1:7" ht="15.4">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="B108" s="4"/>
+      <c r="B108" t="s">
+        <v>221</v>
+      </c>
       <c r="C108" s="3"/>
+      <c r="D108" s="26" t="s">
+        <v>251</v>
+      </c>
       <c r="E108" t="str">
         <f t="shared" si="7"/>
         <v>designs/121.jpg</v>
       </c>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:7" ht="15.5">
+    <row r="109" spans="1:7" ht="15.4">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
       <c r="C109" s="3"/>
+      <c r="D109" s="26" t="s">
+        <v>252</v>
+      </c>
       <c r="E109" t="str">
         <f t="shared" si="7"/>
         <v>designs/122.jpg</v>
       </c>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="1:7" ht="15.5">
+    <row r="110" spans="1:7" ht="15.4">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="B110" s="4"/>
       <c r="C110" s="3"/>
       <c r="E110" t="str">
         <f t="shared" si="7"/>
@@ -3256,146 +3512,198 @@
       </c>
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="1:7" ht="15.5">
+    <row r="111" spans="1:7" ht="15.4">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="B111" s="4"/>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
       <c r="C111" s="3"/>
+      <c r="D111" s="26" t="s">
+        <v>254</v>
+      </c>
       <c r="E111" t="str">
         <f t="shared" si="7"/>
         <v>designs/124.jpg</v>
       </c>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:7" ht="15.5">
+    <row r="112" spans="1:7" ht="15.4">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="B112" s="4"/>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" s="3"/>
+      <c r="D112" s="26" t="s">
+        <v>255</v>
+      </c>
       <c r="E112" t="str">
         <f t="shared" si="7"/>
         <v>designs/125.jpg</v>
       </c>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="1:7" ht="15.5">
+    <row r="113" spans="1:7" ht="15.4">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="B113" s="4"/>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
       <c r="C113" s="3"/>
+      <c r="D113" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="E113" t="str">
         <f t="shared" si="7"/>
         <v>designs/126.jpg</v>
       </c>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:7" ht="15.5">
+    <row r="114" spans="1:7" ht="15.4">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="B114" s="4"/>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
       <c r="C114" s="3"/>
+      <c r="D114" s="26" t="s">
+        <v>257</v>
+      </c>
       <c r="E114" t="str">
         <f t="shared" si="7"/>
         <v>designs/127.jpg</v>
       </c>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="1:7" ht="15.5">
+    <row r="115" spans="1:7" ht="15.4">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="B115" s="4"/>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
       <c r="C115" s="3"/>
+      <c r="D115" s="26" t="s">
+        <v>258</v>
+      </c>
       <c r="E115" t="str">
         <f t="shared" si="7"/>
         <v>designs/128.jpg</v>
       </c>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:7" ht="15.5">
+    <row r="116" spans="1:7" ht="15.4">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="B116" s="4"/>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
       <c r="C116" s="3"/>
+      <c r="D116" s="26" t="s">
+        <v>259</v>
+      </c>
       <c r="E116" t="str">
         <f t="shared" si="7"/>
         <v>designs/129.jpg</v>
       </c>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:7" ht="15.5">
+    <row r="117" spans="1:7" ht="15.4">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="B117" s="4"/>
+      <c r="B117" t="s">
+        <v>230</v>
+      </c>
       <c r="C117" s="3"/>
+      <c r="D117" s="26" t="s">
+        <v>260</v>
+      </c>
       <c r="E117" t="str">
         <f t="shared" si="7"/>
         <v>designs/130.jpg</v>
       </c>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:7" ht="15.5">
+    <row r="118" spans="1:7" ht="15.4">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="B118" s="4"/>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
       <c r="C118" s="3"/>
+      <c r="D118" s="26" t="s">
+        <v>261</v>
+      </c>
       <c r="E118" t="str">
         <f t="shared" si="7"/>
         <v>designs/131.jpg</v>
       </c>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:7" ht="15.5">
+    <row r="119" spans="1:7" ht="15.4">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="B119" s="4"/>
+      <c r="B119" t="s">
+        <v>232</v>
+      </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="E119" t="str">
         <f t="shared" si="7"/>
         <v>designs/132.jpg</v>
       </c>
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="1:7" ht="15.5">
+    <row r="120" spans="1:7" ht="15.4">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="B120" s="4"/>
+      <c r="B120" t="s">
+        <v>233</v>
+      </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="26" t="s">
+        <v>263</v>
+      </c>
       <c r="E120" t="str">
         <f t="shared" si="7"/>
         <v>designs/133.jpg</v>
       </c>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="1:7" ht="15.5">
+    <row r="121" spans="1:7" ht="15.4">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="B121" s="4"/>
+      <c r="B121" t="s">
+        <v>234</v>
+      </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="26" t="s">
+        <v>264</v>
+      </c>
       <c r="E121" t="str">
         <f t="shared" si="7"/>
         <v>designs/134.jpg</v>
@@ -3407,8 +3715,13 @@
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="B122" s="6"/>
+      <c r="B122" t="s">
+        <v>235</v>
+      </c>
       <c r="C122" s="7"/>
+      <c r="D122" s="26" t="s">
+        <v>265</v>
+      </c>
       <c r="E122" t="str">
         <f t="shared" si="7"/>
         <v>designs/135.jpg</v>
@@ -3420,8 +3733,13 @@
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="B123" s="6"/>
+      <c r="B123" t="s">
+        <v>236</v>
+      </c>
       <c r="C123" s="7"/>
+      <c r="D123" s="26" t="s">
+        <v>266</v>
+      </c>
       <c r="E123" t="str">
         <f t="shared" si="7"/>
         <v>designs/136.jpg</v>
@@ -3433,8 +3751,12 @@
         <f t="shared" si="6"/>
         <v>123</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
+      <c r="B124" t="s">
+        <v>223</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>253</v>
+      </c>
       <c r="E124" t="str">
         <f t="shared" si="7"/>
         <v>designs/137.jpg</v>
@@ -3545,7 +3867,7 @@
       </c>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:7" ht="16.5">
+    <row r="133" spans="1:7" ht="15">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3558,7 +3880,7 @@
       </c>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" ht="16.5">
+    <row r="134" spans="1:7" ht="15">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -3571,7 +3893,7 @@
       </c>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:7" ht="15">
+    <row r="135" spans="1:7">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -3584,7 +3906,7 @@
       </c>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:7" ht="15">
+    <row r="136" spans="1:7">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -3597,7 +3919,7 @@
       </c>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="1:7" ht="15">
+    <row r="137" spans="1:7">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -3610,7 +3932,7 @@
       </c>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="1:7" ht="15">
+    <row r="138" spans="1:7">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -3623,7 +3945,7 @@
       </c>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="1:7" ht="15">
+    <row r="139" spans="1:7">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3636,7 +3958,7 @@
       </c>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="1:7" ht="15">
+    <row r="140" spans="1:7">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -3649,7 +3971,7 @@
       </c>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="1:7" ht="15">
+    <row r="141" spans="1:7">
       <c r="A141">
         <f t="shared" ref="A141:A147" si="9">ROW() - 1</f>
         <v>140</v>
@@ -3662,7 +3984,7 @@
       </c>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:7" ht="15">
+    <row r="142" spans="1:7">
       <c r="A142">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -3675,7 +3997,7 @@
       </c>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" ht="15">
+    <row r="143" spans="1:7">
       <c r="A143">
         <f t="shared" si="9"/>
         <v>142</v>
@@ -4060,10 +4382,40 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D74" r:id="rId1" xr:uid="{7299F3DB-9941-4949-8C95-5BCF8A7F65EA}"/>
+    <hyperlink ref="D98" r:id="rId2" xr:uid="{B9AC0AF4-85B6-463C-9342-3B8CCB8F2916}"/>
+    <hyperlink ref="D94" r:id="rId3" xr:uid="{115B339A-84BD-45D8-8826-A191E2B9246A}"/>
+    <hyperlink ref="D95" r:id="rId4" xr:uid="{1AE18A9B-5DB5-469C-8CFD-F12861E8A167}"/>
+    <hyperlink ref="D97" r:id="rId5" xr:uid="{C2916550-663C-40EE-971E-17C2E1CC7C13}"/>
+    <hyperlink ref="D96" r:id="rId6" xr:uid="{573CB28B-C4EB-417E-AD35-52EA6C4BF055}"/>
+    <hyperlink ref="D99" r:id="rId7" xr:uid="{6E5133F3-E597-44E4-B437-EEE802B2910E}"/>
+    <hyperlink ref="D100" r:id="rId8" xr:uid="{6C4339CB-9D7F-49D4-AEE9-3EDE125355D5}"/>
+    <hyperlink ref="D101" r:id="rId9" xr:uid="{D416FC8A-D3E9-48E3-9565-E74BB7E739B5}"/>
+    <hyperlink ref="D102" r:id="rId10" xr:uid="{F4943919-B7CA-4BBF-8E49-DCA7AB599921}"/>
+    <hyperlink ref="D103" r:id="rId11" xr:uid="{21DBBBFC-EB92-4333-80DB-4B1468B8E08A}"/>
+    <hyperlink ref="D104" r:id="rId12" xr:uid="{FEE02209-6542-4AB9-B9BD-8D3333F190D9}"/>
+    <hyperlink ref="D105" r:id="rId13" xr:uid="{19061DFD-DF22-402C-9E6F-91005FCE53A0}"/>
+    <hyperlink ref="D106" r:id="rId14" xr:uid="{B45162BD-F934-4237-A459-545F1F648B01}"/>
+    <hyperlink ref="D107" r:id="rId15" xr:uid="{FA264AD8-46F0-4595-A75E-59AF23FDD0CC}"/>
+    <hyperlink ref="D108" r:id="rId16" xr:uid="{154588A5-03B9-4312-A71C-CBDAF4368A1C}"/>
+    <hyperlink ref="D109" r:id="rId17" xr:uid="{356F76E0-0BB3-4F80-8A3D-E444028ED748}"/>
+    <hyperlink ref="D124" r:id="rId18" xr:uid="{2BA20FF3-7356-4F9C-9B5C-39BD68FFB603}"/>
+    <hyperlink ref="D111" r:id="rId19" xr:uid="{93A53207-A092-40FD-9865-6AE2E7933988}"/>
+    <hyperlink ref="D112" r:id="rId20" xr:uid="{D5DAD728-95FF-4CD2-84E6-169551B61716}"/>
+    <hyperlink ref="D113" r:id="rId21" xr:uid="{56B5C6B5-B442-43E7-BEC4-24C66BEA9C8D}"/>
+    <hyperlink ref="D114" r:id="rId22" xr:uid="{A37F8833-3A53-460D-84AC-CFC63CEFCF14}"/>
+    <hyperlink ref="D115" r:id="rId23" xr:uid="{89FE5F4F-E548-421E-ACA3-E022A836090A}"/>
+    <hyperlink ref="D116" r:id="rId24" xr:uid="{1632E494-380D-413F-B332-A019CEBE2201}"/>
+    <hyperlink ref="D117" r:id="rId25" xr:uid="{B25454F0-07AB-4C8D-B627-93E19A2ABCFE}"/>
+    <hyperlink ref="D118" r:id="rId26" xr:uid="{1D76D51A-2119-42EF-BBC4-0E60062352EE}"/>
+    <hyperlink ref="D119" r:id="rId27" xr:uid="{91E9CB78-674F-454E-869B-013E99E4A26A}"/>
+    <hyperlink ref="D120" r:id="rId28" xr:uid="{677214A9-ED6B-4FE1-8425-405A6C3F59C4}"/>
+    <hyperlink ref="D121" r:id="rId29" xr:uid="{81D3CF97-F659-4089-81C7-D7212D204EC1}"/>
+    <hyperlink ref="D122" r:id="rId30" xr:uid="{B8DC8EDA-D092-4793-BA05-95C74E6867C5}"/>
+    <hyperlink ref="D123" r:id="rId31" xr:uid="{E07B5D07-9ACB-475C-9DA7-9296F65D260C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/User Assignment Mapping.xlsx
+++ b/User Assignment Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akank\Desktop\New Projects 2024\certificate ass new\certificate-assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dadu\Desktop\New folder (3)\certificate-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A372FA-2F6F-455E-9345-B3BEFBE0BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35475B-C1DE-4376-A1D8-98B98FC766E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="269">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t>amoltakbhate19@gmail.com</t>
+  </si>
+  <si>
+    <t>Ganjure</t>
+  </si>
+  <si>
+    <t>rutujaganjure07@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1487,20 +1493,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="28.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.46484375" customWidth="1"/>
-    <col min="6" max="6" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.65" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW() - 1</f>
         <v>1</v>
@@ -1543,7 +1549,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="14.65" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="14.65" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1583,7 +1589,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="14.65" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1603,7 +1609,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="14.65" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1623,7 +1629,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="14.65" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1643,7 +1649,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="14.65" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1663,7 +1669,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="14.65" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1683,7 +1689,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="14.65" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1703,7 +1709,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="14.65" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1743,7 +1749,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="14.65" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1763,7 +1769,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="14.65" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1783,7 +1789,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="14.65" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1803,7 +1809,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.65" thickBot="1">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1823,7 +1829,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="14.65" thickBot="1">
+    <row r="17" spans="1:7" ht="15" thickBot="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1843,7 +1849,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14.65" thickBot="1">
+    <row r="18" spans="1:7" ht="15" thickBot="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1883,7 +1889,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="14.65" thickBot="1">
+    <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1903,7 +1909,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1">
+    <row r="21" spans="1:7" ht="15" thickBot="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1923,7 +1929,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="14.65" thickBot="1">
+    <row r="22" spans="1:7" ht="15" thickBot="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1943,7 +1949,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.65" thickBot="1">
+    <row r="23" spans="1:7" ht="15" thickBot="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1963,7 +1969,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.65" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1983,7 +1989,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="14.65" thickBot="1">
+    <row r="25" spans="1:7" ht="15" thickBot="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2003,7 +2009,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14.65" thickBot="1">
+    <row r="26" spans="1:7" ht="15" thickBot="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2023,7 +2029,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="14.65" thickBot="1">
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2043,7 +2049,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="14.65" thickBot="1">
+    <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2063,7 +2069,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="14.65" thickBot="1">
+    <row r="29" spans="1:7" ht="15" thickBot="1">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2083,7 +2089,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="14.65" thickBot="1">
+    <row r="30" spans="1:7" ht="15" thickBot="1">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2103,7 +2109,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14.65" thickBot="1">
+    <row r="31" spans="1:7" ht="15" thickBot="1">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2123,7 +2129,7 @@
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="14.65" thickBot="1">
+    <row r="32" spans="1:7" ht="15" thickBot="1">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2143,7 +2149,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="27">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2163,7 +2169,7 @@
       </c>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="14.65" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1">
       <c r="A34">
         <f t="shared" ref="A34:A65" si="2">ROW() - 1</f>
         <v>33</v>
@@ -2183,7 +2189,7 @@
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:10" ht="14.65" thickBot="1">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2203,7 +2209,7 @@
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:10" ht="14.65" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2223,7 +2229,7 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:10" ht="14.65" thickBot="1">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2243,7 +2249,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:10" ht="14.65" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2263,7 +2269,7 @@
       </c>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:10" ht="14.65" thickBot="1">
+    <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2283,7 +2289,7 @@
       </c>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:10" ht="14.65" thickBot="1">
+    <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2303,7 +2309,7 @@
       </c>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="14.65" thickBot="1">
+    <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2366,7 +2372,7 @@
       </c>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="15.4">
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2386,7 +2392,7 @@
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="15.4">
+    <row r="45" spans="1:10" ht="15.6">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2406,7 +2412,7 @@
       </c>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="15.4">
+    <row r="46" spans="1:10" ht="15.6">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:10" ht="15.4">
+    <row r="47" spans="1:10" ht="15.6">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2446,21 +2452,27 @@
       </c>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="15.4">
+    <row r="48" spans="1:10" ht="15.6">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>268</v>
+      </c>
       <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v>designs/61.jpg</v>
       </c>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="15.4">
+    <row r="49" spans="1:7" ht="15.6">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2480,7 +2492,7 @@
       </c>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="15.4">
+    <row r="50" spans="1:7" ht="15.6">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2500,7 +2512,7 @@
       </c>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" ht="15.4">
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2514,7 +2526,7 @@
       </c>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" ht="15.4">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2528,7 +2540,7 @@
       </c>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" ht="15.4">
+    <row r="53" spans="1:7" ht="15.6">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2542,7 +2554,7 @@
       </c>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" ht="15.4">
+    <row r="54" spans="1:7" ht="15.6">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2556,7 +2568,7 @@
       </c>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" ht="15.4">
+    <row r="55" spans="1:7" ht="15.6">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2570,7 +2582,7 @@
       </c>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" ht="15.4">
+    <row r="56" spans="1:7" ht="15.6">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2590,7 +2602,7 @@
       </c>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" ht="15.4">
+    <row r="57" spans="1:7" ht="15.6">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2604,7 +2616,7 @@
       </c>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" ht="15.4">
+    <row r="58" spans="1:7" ht="15.6">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2624,7 +2636,7 @@
       </c>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" ht="15.4">
+    <row r="59" spans="1:7" ht="15.6">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2638,7 +2650,7 @@
       </c>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="15.4">
+    <row r="60" spans="1:7" ht="15.6">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2652,7 +2664,7 @@
       </c>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" ht="15.4">
+    <row r="61" spans="1:7" ht="15.6">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2666,7 +2678,7 @@
       </c>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" ht="15.4">
+    <row r="62" spans="1:7" ht="15.6">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2680,7 +2692,7 @@
       </c>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" ht="15.4">
+    <row r="63" spans="1:7" ht="15.6">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2700,7 +2712,7 @@
       </c>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" ht="15.4">
+    <row r="64" spans="1:7" ht="15.6">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2714,7 +2726,7 @@
       </c>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" ht="15.4">
+    <row r="65" spans="1:7" ht="15.6">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2739,7 +2751,7 @@
       </c>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" ht="15.4">
+    <row r="67" spans="1:7" ht="15.6">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -2759,7 +2771,7 @@
       </c>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" ht="15.4">
+    <row r="68" spans="1:7" ht="15.6">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -2777,7 +2789,7 @@
       </c>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" ht="15.4">
+    <row r="69" spans="1:7" ht="15.6">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -2795,7 +2807,7 @@
       </c>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" ht="15.4">
+    <row r="70" spans="1:7" ht="15.6">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -2815,7 +2827,7 @@
       </c>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" ht="15.4">
+    <row r="71" spans="1:7" ht="15.6">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -2833,7 +2845,7 @@
       </c>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" ht="15.4">
+    <row r="72" spans="1:7" ht="15.6">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -2851,7 +2863,7 @@
       </c>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" ht="15.4">
+    <row r="73" spans="1:7" ht="15.6">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -2871,7 +2883,7 @@
       </c>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" ht="15.4">
+    <row r="74" spans="1:7" ht="15.6">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -2891,7 +2903,7 @@
       </c>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" ht="15.4">
+    <row r="75" spans="1:7" ht="15.6">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -2908,7 +2920,7 @@
       </c>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" ht="15.4">
+    <row r="76" spans="1:7" ht="15.6">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -2925,7 +2937,7 @@
       </c>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" ht="15.4">
+    <row r="77" spans="1:7" ht="15.6">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -2941,7 +2953,7 @@
       </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" ht="15.4">
+    <row r="78" spans="1:7" ht="15.6">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -2958,7 +2970,7 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" ht="15.4">
+    <row r="79" spans="1:7" ht="15.6">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -2975,7 +2987,7 @@
       </c>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" ht="15.4">
+    <row r="80" spans="1:7" ht="15.6">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -2992,7 +3004,7 @@
       </c>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" ht="15.4">
+    <row r="81" spans="1:7" ht="15.6">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -3009,7 +3021,7 @@
       </c>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" ht="15.4">
+    <row r="82" spans="1:7" ht="15.6">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -3026,7 +3038,7 @@
       </c>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" ht="15.4">
+    <row r="83" spans="1:7" ht="15.6">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" ht="15.4">
+    <row r="84" spans="1:7" ht="15.6">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -3060,7 +3072,7 @@
       </c>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" ht="15.4">
+    <row r="85" spans="1:7" ht="15.6">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -3077,7 +3089,7 @@
       </c>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" ht="15.4">
+    <row r="86" spans="1:7" ht="15.6">
       <c r="A86">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -3094,7 +3106,7 @@
       </c>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" ht="15.4">
+    <row r="87" spans="1:7" ht="15.6">
       <c r="A87">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3111,7 +3123,7 @@
       </c>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" ht="15.4">
+    <row r="88" spans="1:7" ht="15.6">
       <c r="A88">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -3128,7 +3140,7 @@
       </c>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" ht="15.4">
+    <row r="89" spans="1:7" ht="15.6">
       <c r="A89">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -3145,7 +3157,7 @@
       </c>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" ht="15.4">
+    <row r="90" spans="1:7" ht="15.6">
       <c r="A90">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -3179,7 +3191,7 @@
       </c>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" ht="15.4">
+    <row r="92" spans="1:7" ht="15.6">
       <c r="A92">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -3196,7 +3208,7 @@
       </c>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" ht="15.4">
+    <row r="93" spans="1:7" ht="15.6">
       <c r="A93">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -3213,7 +3225,7 @@
       </c>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" ht="15.4">
+    <row r="94" spans="1:7" ht="15.6">
       <c r="A94">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -3231,7 +3243,7 @@
       </c>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" ht="15.4">
+    <row r="95" spans="1:7" ht="15.6">
       <c r="A95">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -3249,7 +3261,7 @@
       </c>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" ht="15.4">
+    <row r="96" spans="1:7" ht="15.6">
       <c r="A96">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -3267,7 +3279,7 @@
       </c>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" ht="15.4">
+    <row r="97" spans="1:7" ht="15.6">
       <c r="A97">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -3285,7 +3297,7 @@
       </c>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" ht="15.4">
+    <row r="98" spans="1:7" ht="15.6">
       <c r="A98">
         <f t="shared" ref="A98:A140" si="6">ROW() - 1</f>
         <v>97</v>
@@ -3303,7 +3315,7 @@
       </c>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="1:7" ht="15.4">
+    <row r="99" spans="1:7" ht="15.6">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -3321,7 +3333,7 @@
       </c>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:7" ht="15.4">
+    <row r="100" spans="1:7" ht="15.6">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -3339,7 +3351,7 @@
       </c>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:7" ht="15.4">
+    <row r="101" spans="1:7" ht="15.6">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -3357,7 +3369,7 @@
       </c>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:7" ht="15.4">
+    <row r="102" spans="1:7" ht="15.6">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -3375,7 +3387,7 @@
       </c>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:7" ht="15.4">
+    <row r="103" spans="1:7" ht="15.6">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -3393,7 +3405,7 @@
       </c>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:7" ht="15.4">
+    <row r="104" spans="1:7" ht="15.6">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -3411,7 +3423,7 @@
       </c>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7" ht="15.4">
+    <row r="105" spans="1:7" ht="15.6">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -3446,7 +3458,7 @@
       </c>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" ht="15.4">
+    <row r="107" spans="1:7" ht="15.6">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -3464,7 +3476,7 @@
       </c>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:7" ht="15.4">
+    <row r="108" spans="1:7" ht="15.6">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -3482,7 +3494,7 @@
       </c>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:7" ht="15.4">
+    <row r="109" spans="1:7" ht="15.6">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -3500,7 +3512,7 @@
       </c>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="1:7" ht="15.4">
+    <row r="110" spans="1:7" ht="15.6">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -3512,7 +3524,7 @@
       </c>
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="1:7" ht="15.4">
+    <row r="111" spans="1:7" ht="15.6">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -3530,7 +3542,7 @@
       </c>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:7" ht="15.4">
+    <row r="112" spans="1:7" ht="15.6">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -3548,7 +3560,7 @@
       </c>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="1:7" ht="15.4">
+    <row r="113" spans="1:7" ht="15.6">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -3566,7 +3578,7 @@
       </c>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:7" ht="15.4">
+    <row r="114" spans="1:7" ht="15.6">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -3584,7 +3596,7 @@
       </c>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="1:7" ht="15.4">
+    <row r="115" spans="1:7" ht="15.6">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -3602,7 +3614,7 @@
       </c>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:7" ht="15.4">
+    <row r="116" spans="1:7" ht="15.6">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -3620,7 +3632,7 @@
       </c>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:7" ht="15.4">
+    <row r="117" spans="1:7" ht="15.6">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -3638,7 +3650,7 @@
       </c>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:7" ht="15.4">
+    <row r="118" spans="1:7" ht="15.6">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>117</v>
@@ -3656,7 +3668,7 @@
       </c>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:7" ht="15.4">
+    <row r="119" spans="1:7" ht="15.6">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>118</v>
@@ -3674,7 +3686,7 @@
       </c>
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="1:7" ht="15.4">
+    <row r="120" spans="1:7" ht="15.6">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -3692,7 +3704,7 @@
       </c>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="1:7" ht="15.4">
+    <row r="121" spans="1:7" ht="15.6">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -3867,7 +3879,7 @@
       </c>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:7" ht="15">
+    <row r="133" spans="1:7" ht="15.6">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3880,7 +3892,7 @@
       </c>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" ht="15">
+    <row r="134" spans="1:7" ht="15.6">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -3893,7 +3905,7 @@
       </c>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="15">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -3906,7 +3918,7 @@
       </c>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" ht="15">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -3919,7 +3931,7 @@
       </c>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="15">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -3932,7 +3944,7 @@
       </c>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" ht="15">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -3945,7 +3957,7 @@
       </c>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" ht="15">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3958,7 +3970,7 @@
       </c>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="15">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -3971,7 +3983,7 @@
       </c>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" ht="15">
       <c r="A141">
         <f t="shared" ref="A141:A147" si="9">ROW() - 1</f>
         <v>140</v>
@@ -3984,7 +3996,7 @@
       </c>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="15">
       <c r="A142">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -3997,7 +4009,7 @@
       </c>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="15">
       <c r="A143">
         <f t="shared" si="9"/>
         <v>142</v>
@@ -4412,10 +4424,11 @@
     <hyperlink ref="D121" r:id="rId29" xr:uid="{81D3CF97-F659-4089-81C7-D7212D204EC1}"/>
     <hyperlink ref="D122" r:id="rId30" xr:uid="{B8DC8EDA-D092-4793-BA05-95C74E6867C5}"/>
     <hyperlink ref="D123" r:id="rId31" xr:uid="{E07B5D07-9ACB-475C-9DA7-9296F65D260C}"/>
+    <hyperlink ref="D48" r:id="rId32" xr:uid="{96BF6809-7913-4933-AE65-A1CC94949B04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/User Assignment Mapping.xlsx
+++ b/User Assignment Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apnasite-my.sharepoint.com/personal/vilas_apnasite_in/Documents/02 MMEAC - Maha Mission Education and Career Council/00 Training/00 Full Time Courses/01 Full Stack/00 Assignments/03 Certificate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code- Env\mmeac project\Certificate\certificate-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="11_F25DC773A252ABDACC104895C9DB75845BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70FEF8D9-9910-4A82-A069-B6F8FA646A5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B14D64-C53F-49E0-B93B-D3D9E374A301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="198">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -618,6 +616,18 @@
   </si>
   <si>
     <t>designs /186.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay </t>
+  </si>
+  <si>
+    <t>Khade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapnil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya </t>
   </si>
 </sst>
 </file>
@@ -1270,20 +1280,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="32.86328125" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="6" max="6" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" thickBot="1">
+    <row r="2" spans="1:7" ht="14.65" thickBot="1">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW() - 1</f>
         <v>1</v>
@@ -1326,7 +1336,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" thickBot="1">
+    <row r="3" spans="1:7" ht="14.65" thickBot="1">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1346,7 +1356,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" thickBot="1">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1366,7 +1376,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" thickBot="1">
+    <row r="5" spans="1:7" ht="14.65" thickBot="1">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1386,7 +1396,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" thickBot="1">
+    <row r="6" spans="1:7" ht="14.65" thickBot="1">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1406,7 +1416,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" thickBot="1">
+    <row r="7" spans="1:7" ht="14.65" thickBot="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1426,7 +1436,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" thickBot="1">
+    <row r="8" spans="1:7" ht="14.65" thickBot="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1446,7 +1456,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" thickBot="1">
+    <row r="9" spans="1:7" ht="14.65" thickBot="1">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1466,7 +1476,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" thickBot="1">
+    <row r="10" spans="1:7" ht="14.65" thickBot="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1486,7 +1496,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" thickBot="1">
+    <row r="11" spans="1:7" ht="14.65" thickBot="1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1526,7 +1536,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" thickBot="1">
+    <row r="13" spans="1:7" ht="14.65" thickBot="1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1546,7 +1556,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" thickBot="1">
+    <row r="14" spans="1:7" ht="14.65" thickBot="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1566,7 +1576,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" thickBot="1">
+    <row r="15" spans="1:7" ht="14.65" thickBot="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1586,7 +1596,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" thickBot="1">
+    <row r="16" spans="1:7" ht="14.65" thickBot="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1606,7 +1616,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" thickBot="1">
+    <row r="17" spans="1:7" ht="14.65" thickBot="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1626,7 +1636,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" thickBot="1">
+    <row r="18" spans="1:7" ht="14.65" thickBot="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1666,7 +1676,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" thickBot="1">
+    <row r="20" spans="1:7" ht="14.65" thickBot="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1686,7 +1696,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" thickBot="1">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1706,7 +1716,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" thickBot="1">
+    <row r="22" spans="1:7" ht="14.65" thickBot="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1726,7 +1736,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" thickBot="1">
+    <row r="23" spans="1:7" ht="14.65" thickBot="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1746,7 +1756,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" thickBot="1">
+    <row r="24" spans="1:7" ht="14.65" thickBot="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1766,7 +1776,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" thickBot="1">
+    <row r="25" spans="1:7" ht="14.65" thickBot="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1786,7 +1796,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" thickBot="1">
+    <row r="26" spans="1:7" ht="14.65" thickBot="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1806,7 +1816,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" thickBot="1">
+    <row r="27" spans="1:7" ht="14.65" thickBot="1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1826,7 +1836,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" thickBot="1">
+    <row r="28" spans="1:7" ht="14.65" thickBot="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1846,7 +1856,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" thickBot="1">
+    <row r="29" spans="1:7" ht="14.65" thickBot="1">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1866,7 +1876,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" thickBot="1">
+    <row r="30" spans="1:7" ht="14.65" thickBot="1">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1886,7 +1896,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" thickBot="1">
+    <row r="31" spans="1:7" ht="14.65" thickBot="1">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1906,7 +1916,7 @@
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" thickBot="1">
+    <row r="32" spans="1:7" ht="14.65" thickBot="1">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1926,7 +1936,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="24">
+    <row r="33" spans="1:10">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1946,7 +1956,7 @@
       </c>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:10" thickBot="1">
+    <row r="34" spans="1:10" ht="14.65" thickBot="1">
       <c r="A34">
         <f t="shared" ref="A34:A65" si="2">ROW() - 1</f>
         <v>33</v>
@@ -1966,7 +1976,7 @@
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:10" thickBot="1">
+    <row r="35" spans="1:10" ht="14.65" thickBot="1">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -1986,7 +1996,7 @@
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:10" thickBot="1">
+    <row r="36" spans="1:10" ht="14.65" thickBot="1">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2006,7 +2016,7 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:10" thickBot="1">
+    <row r="37" spans="1:10" ht="14.65" thickBot="1">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2026,7 +2036,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:10" thickBot="1">
+    <row r="38" spans="1:10" ht="14.65" thickBot="1">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2046,7 +2056,7 @@
       </c>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:10" thickBot="1">
+    <row r="39" spans="1:10" ht="14.65" thickBot="1">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2066,7 +2076,7 @@
       </c>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:10" thickBot="1">
+    <row r="40" spans="1:10" ht="14.65" thickBot="1">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2086,7 +2096,7 @@
       </c>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:10" thickBot="1">
+    <row r="41" spans="1:10" ht="14.65" thickBot="1">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2149,7 +2159,7 @@
       </c>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.4">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2165,7 +2175,7 @@
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.4">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2181,7 +2191,7 @@
       </c>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.4">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2197,7 +2207,7 @@
       </c>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.4">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2212,7 +2222,7 @@
       </c>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.4">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2228,7 +2238,7 @@
       </c>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="15.4">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2244,7 +2254,7 @@
       </c>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="15.4">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2259,7 +2269,7 @@
       </c>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="15.4">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2275,7 +2285,7 @@
       </c>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="15.4">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2291,7 +2301,7 @@
       </c>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="15.4">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2307,7 +2317,7 @@
       </c>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="15.4">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2323,7 +2333,7 @@
       </c>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="15.4">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2339,7 +2349,7 @@
       </c>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="15.4">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2355,7 +2365,7 @@
       </c>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="15.4">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2371,7 +2381,7 @@
       </c>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="15.4">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2387,7 +2397,7 @@
       </c>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="15.4">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2403,7 +2413,7 @@
       </c>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="15.4">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2419,7 +2429,7 @@
       </c>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75">
+    <row r="61" spans="1:7" ht="15.4">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2435,7 +2445,7 @@
       </c>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="15.4">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2451,7 +2461,7 @@
       </c>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="15.4">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2467,7 +2477,7 @@
       </c>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="15.4">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2483,7 +2493,7 @@
       </c>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="15.4">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2499,7 +2509,7 @@
       </c>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="15.4">
       <c r="A66">
         <f t="shared" ref="A66:A97" si="4">ROW() - 1</f>
         <v>65</v>
@@ -2515,7 +2525,7 @@
       </c>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="15.4">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -2535,7 +2545,7 @@
       </c>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="15.4">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -2553,7 +2563,7 @@
       </c>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="15.4">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -2571,7 +2581,7 @@
       </c>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="15.4">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -2587,7 +2597,7 @@
       </c>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
+    <row r="71" spans="1:7" ht="15.4">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -2603,7 +2613,7 @@
       </c>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="15.4">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -2619,7 +2629,7 @@
       </c>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="15.4">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -2635,7 +2645,7 @@
       </c>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="15.4">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -2655,7 +2665,7 @@
       </c>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="15.4">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -2672,7 +2682,7 @@
       </c>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="15.4">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -2689,7 +2699,7 @@
       </c>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="15.4">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -2705,7 +2715,7 @@
       </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="15.4">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -2722,7 +2732,7 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="15.4">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -2739,7 +2749,7 @@
       </c>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="15.4">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -2756,7 +2766,7 @@
       </c>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:7" ht="15.4">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -2773,7 +2783,7 @@
       </c>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:7" ht="15.4">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -2790,7 +2800,7 @@
       </c>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:7" ht="15.4">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -2807,7 +2817,7 @@
       </c>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75">
+    <row r="84" spans="1:7" ht="15.4">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -2824,7 +2834,7 @@
       </c>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75">
+    <row r="85" spans="1:7" ht="15.4">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -2841,7 +2851,7 @@
       </c>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75">
+    <row r="86" spans="1:7" ht="15.4">
       <c r="A86">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -2858,7 +2868,7 @@
       </c>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:7" ht="15.4">
       <c r="A87">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -2875,7 +2885,7 @@
       </c>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:7" ht="15.4">
       <c r="A88">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -2892,7 +2902,7 @@
       </c>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:7" ht="15.4">
       <c r="A89">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -2909,7 +2919,7 @@
       </c>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7" ht="15.4">
       <c r="A90">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -2926,85 +2936,91 @@
       </c>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:7" ht="15.4">
       <c r="A91">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
+        <v>195</v>
+      </c>
       <c r="E91" t="str">
         <f t="shared" si="5"/>
         <v>designs/104.jpg</v>
       </c>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="15.4">
       <c r="A92">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
       <c r="E92" t="str">
         <f t="shared" si="5"/>
         <v>designs/105.jpg</v>
       </c>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="15.4">
       <c r="A93">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s">
+        <v>156</v>
+      </c>
       <c r="E93" t="str">
         <f t="shared" si="5"/>
         <v>designs/106.jpg</v>
       </c>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7">
       <c r="A94">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="3"/>
       <c r="E94" t="str">
         <f t="shared" si="5"/>
         <v>designs/107.jpg</v>
       </c>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7">
       <c r="A95">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="3"/>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
         <v>designs/108.jpg</v>
       </c>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:7">
       <c r="A96">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="3"/>
       <c r="E96" t="str">
         <f t="shared" si="5"/>
         <v>designs/109.jpg</v>
       </c>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75">
+    <row r="97" spans="1:7" ht="15.4">
       <c r="A97">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -3017,7 +3033,7 @@
       </c>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75">
+    <row r="98" spans="1:7" ht="15.4">
       <c r="A98">
         <f t="shared" ref="A98:A140" si="6">ROW() - 1</f>
         <v>97</v>
@@ -3030,7 +3046,7 @@
       </c>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75">
+    <row r="99" spans="1:7" ht="15.4">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -3043,7 +3059,7 @@
       </c>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7" ht="15.4">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -3056,7 +3072,7 @@
       </c>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75">
+    <row r="101" spans="1:7" ht="15.4">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -3069,7 +3085,7 @@
       </c>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75">
+    <row r="102" spans="1:7" ht="15.4">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -3082,7 +3098,7 @@
       </c>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75">
+    <row r="103" spans="1:7" ht="15.4">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -3095,7 +3111,7 @@
       </c>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75">
+    <row r="104" spans="1:7" ht="15.4">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -3108,7 +3124,7 @@
       </c>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75">
+    <row r="105" spans="1:7" ht="15.4">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -3134,7 +3150,7 @@
       </c>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75">
+    <row r="107" spans="1:7" ht="15.4">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -3147,7 +3163,7 @@
       </c>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75">
+    <row r="108" spans="1:7" ht="15.4">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -3160,7 +3176,7 @@
       </c>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75">
+    <row r="109" spans="1:7" ht="15.4">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -3173,7 +3189,7 @@
       </c>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75">
+    <row r="110" spans="1:7" ht="15.4">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -3186,7 +3202,7 @@
       </c>
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75">
+    <row r="111" spans="1:7" ht="15.4">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -3199,7 +3215,7 @@
       </c>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75">
+    <row r="112" spans="1:7" ht="15.4">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -3212,7 +3228,7 @@
       </c>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75">
+    <row r="113" spans="1:7" ht="15.4">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -3225,7 +3241,7 @@
       </c>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75">
+    <row r="114" spans="1:7" ht="15.4">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -3238,7 +3254,7 @@
       </c>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75">
+    <row r="115" spans="1:7" ht="15.4">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -3251,7 +3267,7 @@
       </c>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75">
+    <row r="116" spans="1:7" ht="15.4">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -3264,7 +3280,7 @@
       </c>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75">
+    <row r="117" spans="1:7" ht="15.4">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -3277,7 +3293,7 @@
       </c>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75">
+    <row r="118" spans="1:7" ht="15.4">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>117</v>
@@ -3290,7 +3306,7 @@
       </c>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75">
+    <row r="119" spans="1:7" ht="15.4">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>118</v>
@@ -3304,7 +3320,7 @@
       </c>
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75">
+    <row r="120" spans="1:7" ht="15.4">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -3318,7 +3334,7 @@
       </c>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75">
+    <row r="121" spans="1:7" ht="15.4">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -3444,7 +3460,7 @@
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E161" si="8">_xlfn.CONCAT("designs/",TEXT(A144,"00"),".jpg")</f>
+        <f t="shared" ref="E130:E159" si="8">_xlfn.CONCAT("designs/",TEXT(A144,"00"),".jpg")</f>
         <v>designs/143.jpg</v>
       </c>
       <c r="G130" s="15"/>
@@ -3475,7 +3491,7 @@
       </c>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:7" ht="17.25">
+    <row r="133" spans="1:7" ht="15">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3488,7 +3504,7 @@
       </c>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" ht="17.25">
+    <row r="134" spans="1:7" ht="15">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -3501,7 +3517,7 @@
       </c>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5">
+    <row r="135" spans="1:7">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -3514,7 +3530,7 @@
       </c>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:7" ht="16.5">
+    <row r="136" spans="1:7">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -3527,7 +3543,7 @@
       </c>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5">
+    <row r="137" spans="1:7">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -3540,7 +3556,7 @@
       </c>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="1:7" ht="16.5">
+    <row r="138" spans="1:7">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -3553,7 +3569,7 @@
       </c>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5">
+    <row r="139" spans="1:7">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3566,7 +3582,7 @@
       </c>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="1:7" ht="16.5">
+    <row r="140" spans="1:7">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -3579,7 +3595,7 @@
       </c>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="1:7" ht="16.5">
+    <row r="141" spans="1:7">
       <c r="A141">
         <f t="shared" ref="A141:A147" si="9">ROW() - 1</f>
         <v>140</v>
@@ -3592,7 +3608,7 @@
       </c>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:7" ht="16.5">
+    <row r="142" spans="1:7">
       <c r="A142">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -3605,7 +3621,7 @@
       </c>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" ht="16.5">
+    <row r="143" spans="1:7">
       <c r="A143">
         <f t="shared" si="9"/>
         <v>142</v>
@@ -3830,7 +3846,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <f t="shared" ref="A161:A180" si="12">ROW() - 1</f>
+        <f t="shared" ref="A161:A173" si="12">ROW() - 1</f>
         <v>160</v>
       </c>
       <c r="E161" t="s">

--- a/User Assignment Mapping.xlsx
+++ b/User Assignment Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dadu\Desktop\New folder (3)\certificate-assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Code\00 Training Project Assignments\certificate-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35475B-C1DE-4376-A1D8-98B98FC766E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F2DA9C-D698-4E10-B4A2-79961036CFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="286">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -841,6 +841,57 @@
   </si>
   <si>
     <t>rutujaganjure07@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhongde</t>
+  </si>
+  <si>
+    <t>dhongadetrupti2@gmail.com</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Kandra</t>
+  </si>
+  <si>
+    <t>sheetalkandara785@gmail.com</t>
+  </si>
+  <si>
+    <t>baluresanjeevanee22@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjeevani</t>
+  </si>
+  <si>
+    <t>Balure</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Ragho</t>
+  </si>
+  <si>
+    <t>raghumayuri2004@gmail.com</t>
+  </si>
+  <si>
+    <t>kadamhemant642@gmail.com</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t>kishorimestry1996@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishori</t>
+  </si>
+  <si>
+    <t>Mestry</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1007,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +1018,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1091,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,6 +1187,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1493,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2513,70 +2575,100 @@
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="15.6">
-      <c r="A51">
+      <c r="A51" s="32">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="25"/>
-      <c r="E51" t="str">
+      <c r="B51" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="32" t="str">
         <f t="shared" si="3"/>
         <v>designs/64.jpg</v>
       </c>
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" ht="15.6">
-      <c r="A52">
+      <c r="A52" s="32">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="25"/>
-      <c r="E52" t="str">
+      <c r="B52" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="32" t="str">
         <f t="shared" si="3"/>
         <v>designs/65.jpg</v>
       </c>
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="15.6">
-      <c r="A53">
+      <c r="A53" s="32">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="25"/>
-      <c r="E53" t="str">
+      <c r="B53" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="32" t="str">
         <f t="shared" si="3"/>
         <v>designs/66.jpg</v>
       </c>
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" ht="15.6">
-      <c r="A54">
+      <c r="A54" s="32">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="25"/>
-      <c r="E54" t="str">
+      <c r="B54" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="32" t="str">
         <f t="shared" si="3"/>
         <v>designs/67.jpg</v>
       </c>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7" ht="15.6">
-      <c r="A55">
+      <c r="A55" s="32">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="25"/>
-      <c r="E55" t="str">
+      <c r="B55" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" s="32" t="str">
         <f t="shared" si="3"/>
         <v>designs/68.jpg</v>
       </c>
@@ -2603,14 +2695,20 @@
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" ht="15.6">
-      <c r="A57">
+      <c r="A57" s="32">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="25"/>
-      <c r="E57" t="str">
+      <c r="B57" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" s="32" t="str">
         <f t="shared" si="3"/>
         <v>designs/70.jpg</v>
       </c>
@@ -4425,10 +4523,12 @@
     <hyperlink ref="D122" r:id="rId30" xr:uid="{B8DC8EDA-D092-4793-BA05-95C74E6867C5}"/>
     <hyperlink ref="D123" r:id="rId31" xr:uid="{E07B5D07-9ACB-475C-9DA7-9296F65D260C}"/>
     <hyperlink ref="D48" r:id="rId32" xr:uid="{96BF6809-7913-4933-AE65-A1CC94949B04}"/>
+    <hyperlink ref="D51" r:id="rId33" xr:uid="{CA24AEAB-160A-4553-9F01-EDAC6FC9BB48}"/>
+    <hyperlink ref="D52" r:id="rId34" xr:uid="{8A95F82B-885B-4436-A026-3B491B3DE0FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/User Assignment Mapping.xlsx
+++ b/User Assignment Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Code\00 Training Project Assignments\certificate-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F2DA9C-D698-4E10-B4A2-79961036CFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CC2F1-0326-4806-B364-7816BBC26F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="287">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -892,13 +892,16 @@
   </si>
   <si>
     <t>Mestry</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,48 +935,49 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -992,7 +996,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1006,8 +1010,14 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,12 +1208,37 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1271,20 +1312,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}" name="Table1" displayName="Table1" ref="A1:G173" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:G173" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}" name="Table1" displayName="Table1" ref="A1:H173" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:H173" xr:uid="{CC4468F5-0D63-44CF-9009-A21C0D520502}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7E2CFDBB-BA5E-49DA-9973-9F596D007047}" name="Sr. No.">
       <calculatedColumnFormula>ROW() - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{101B57E9-B587-4811-A5F9-9C8D2916B5A7}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{B42FFB8C-E40B-4CFF-B588-2A93BF040BAB}" name="Last Name"/>
     <tableColumn id="4" xr3:uid="{300A2219-4607-428B-9B9E-A5D79466CB7B}" name="Email"/>
-    <tableColumn id="5" xr3:uid="{DF359894-BEEC-42C8-9C0F-9C994370358A}" name="Assignment File" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{DF359894-BEEC-42C8-9C0F-9C994370358A}" name="Assignment File" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("designs/",TEXT(A16,"00"),".jpg")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D6D2C818-E88C-4528-9131-7FB10A1427E2}" name="Assignment Github Url"/>
-    <tableColumn id="7" xr3:uid="{BA1F7B07-B165-4F1E-8F2A-FB3B7915208A}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{BA1F7B07-B165-4F1E-8F2A-FB3B7915208A}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F416CE9E-8DD9-4FEC-979D-2A76F249C8BB}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1555,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1568,7 +1610,7 @@
     <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,8 +1632,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="H1" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2">
         <f t="shared" ref="A2:A33" si="0">ROW() - 1</f>
         <v>1</v>
@@ -1610,8 +1655,9 @@
         <v>designs/15.jpg</v>
       </c>
       <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1630,8 +1676,9 @@
         <v>designs/16.jpg</v>
       </c>
       <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1650,8 +1697,9 @@
         <v>designs/17.jpg</v>
       </c>
       <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1670,8 +1718,9 @@
         <v>designs/18.jpg</v>
       </c>
       <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1690,8 +1739,9 @@
         <v>designs/19.jpg</v>
       </c>
       <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1710,8 +1760,9 @@
         <v>designs/20.jpg</v>
       </c>
       <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1730,8 +1781,9 @@
         <v>designs/21.jpg</v>
       </c>
       <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1750,8 +1802,9 @@
         <v>designs/22.jpg</v>
       </c>
       <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1770,8 +1823,9 @@
         <v>designs/23.jpg</v>
       </c>
       <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1790,8 +1844,9 @@
         <v>designs/24.jpg</v>
       </c>
       <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1810,8 +1865,9 @@
         <v>designs/25.jpg</v>
       </c>
       <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1830,8 +1886,9 @@
         <v>designs/26.jpg</v>
       </c>
       <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1850,8 +1907,9 @@
         <v>designs/27.jpg</v>
       </c>
       <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1870,8 +1928,9 @@
         <v>designs/28.jpg</v>
       </c>
       <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1890,8 +1949,9 @@
         <v>designs/29.jpg</v>
       </c>
       <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1">
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1910,8 +1970,9 @@
         <v>designs/30.jpg</v>
       </c>
       <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1930,8 +1991,9 @@
         <v>designs/31.jpg</v>
       </c>
       <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1950,8 +2012,9 @@
         <v>designs/32.jpg</v>
       </c>
       <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1970,8 +2033,9 @@
         <v>designs/33.jpg</v>
       </c>
       <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1990,8 +2054,9 @@
         <v>designs/34.jpg</v>
       </c>
       <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1">
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2010,8 +2075,9 @@
         <v>designs/35.jpg</v>
       </c>
       <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1">
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2030,8 +2096,9 @@
         <v>designs/36.jpg</v>
       </c>
       <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2050,8 +2117,9 @@
         <v>designs/37.jpg</v>
       </c>
       <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2070,8 +2138,9 @@
         <v>designs/38.jpg</v>
       </c>
       <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2090,8 +2159,9 @@
         <v>designs/39.jpg</v>
       </c>
       <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2110,8 +2180,9 @@
         <v>designs/40.jpg</v>
       </c>
       <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1">
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2130,8 +2201,9 @@
         <v>designs/41.jpg</v>
       </c>
       <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2150,8 +2222,9 @@
         <v>designs/42.jpg</v>
       </c>
       <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2170,8 +2243,9 @@
         <v>designs/43.jpg</v>
       </c>
       <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1">
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2190,8 +2264,9 @@
         <v>designs/44.jpg</v>
       </c>
       <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2210,6 +2285,7 @@
         <v>designs/45.jpg</v>
       </c>
       <c r="G32" s="15"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:10" ht="27">
       <c r="A33">
@@ -2230,6 +2306,7 @@
         <v>designs/46.jpg</v>
       </c>
       <c r="G33" s="15"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1">
       <c r="A34">
@@ -2250,6 +2327,7 @@
         <v>designs/47.jpg</v>
       </c>
       <c r="G34" s="15"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35">
@@ -2270,6 +2348,7 @@
         <v>designs/48.jpg</v>
       </c>
       <c r="G35" s="15"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36">
@@ -2290,6 +2369,7 @@
         <v>designs/49.jpg</v>
       </c>
       <c r="G36" s="15"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="A37">
@@ -2310,6 +2390,7 @@
         <v>designs/50.jpg</v>
       </c>
       <c r="G37" s="15"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38">
@@ -2330,6 +2411,7 @@
         <v>designs/51.jpg</v>
       </c>
       <c r="G38" s="15"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39">
@@ -2350,6 +2432,7 @@
         <v>designs/52.jpg</v>
       </c>
       <c r="G39" s="15"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40">
@@ -2370,6 +2453,7 @@
         <v>designs/53.jpg</v>
       </c>
       <c r="G40" s="15"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="A41">
@@ -2390,6 +2474,7 @@
         <v>designs/54.jpg</v>
       </c>
       <c r="G41" s="15"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
@@ -2410,6 +2495,7 @@
         <v>designs/55.jpg</v>
       </c>
       <c r="G42" s="15"/>
+      <c r="H42" s="37"/>
       <c r="J42" t="s">
         <v>114</v>
       </c>
@@ -2433,6 +2519,7 @@
         <v>designs/56.jpg</v>
       </c>
       <c r="G43" s="15"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
       <c r="A44">
@@ -2453,6 +2540,7 @@
         <v>designs/57.jpg</v>
       </c>
       <c r="G44" s="15"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
       <c r="A45">
@@ -2473,6 +2561,7 @@
         <v>designs/58.jpg</v>
       </c>
       <c r="G45" s="15"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
       <c r="A46">
@@ -2493,6 +2582,7 @@
         <v>designs/59.jpg</v>
       </c>
       <c r="G46" s="15"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47">
@@ -2513,6 +2603,7 @@
         <v>designs/60.jpg</v>
       </c>
       <c r="G47" s="15"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48">
@@ -2533,8 +2624,9 @@
         <v>designs/61.jpg</v>
       </c>
       <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.6">
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2553,8 +2645,9 @@
         <v>designs/62.jpg</v>
       </c>
       <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.6">
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2573,8 +2666,9 @@
         <v>designs/63.jpg</v>
       </c>
       <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.6">
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="32">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2593,8 +2687,9 @@
         <v>designs/64.jpg</v>
       </c>
       <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.6">
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="32">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2613,8 +2708,9 @@
         <v>designs/65.jpg</v>
       </c>
       <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.6">
+      <c r="H52" s="37"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="32">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2633,8 +2729,9 @@
         <v>designs/66.jpg</v>
       </c>
       <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.6">
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="32">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2653,8 +2750,9 @@
         <v>designs/67.jpg</v>
       </c>
       <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.6">
+      <c r="H54" s="37"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="32">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2673,8 +2771,9 @@
         <v>designs/68.jpg</v>
       </c>
       <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.6">
+      <c r="H55" s="37"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2693,8 +2792,9 @@
         <v>designs/69.jpg</v>
       </c>
       <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.6">
+      <c r="H56" s="37"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="32">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2713,8 +2813,9 @@
         <v>designs/70.jpg</v>
       </c>
       <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.6">
+      <c r="H57" s="37"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2733,8 +2834,9 @@
         <v>designs/71.jpg</v>
       </c>
       <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.6">
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2747,8 +2849,9 @@
         <v>designs/72.jpg</v>
       </c>
       <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.6">
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -2761,8 +2864,9 @@
         <v>designs/73.jpg</v>
       </c>
       <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.6">
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2775,8 +2879,9 @@
         <v>designs/74.jpg</v>
       </c>
       <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.6">
+      <c r="H61" s="37"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2789,8 +2894,9 @@
         <v>designs/75.jpg</v>
       </c>
       <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.6">
+      <c r="H62" s="37"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -2809,8 +2915,9 @@
         <v>designs/76.jpg</v>
       </c>
       <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.6">
+      <c r="H63" s="37"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -2823,8 +2930,9 @@
         <v>designs/77.jpg</v>
       </c>
       <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.6">
+      <c r="H64" s="37"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -2837,8 +2945,9 @@
         <v>designs/78.jpg</v>
       </c>
       <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="37"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <f t="shared" ref="A66:A97" si="4">ROW() - 1</f>
         <v>65</v>
@@ -2848,8 +2957,9 @@
         <v>designs/79.jpg</v>
       </c>
       <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.6">
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -2868,8 +2978,9 @@
         <v>designs/80.jpg</v>
       </c>
       <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.6">
+      <c r="H67" s="37"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -2886,8 +2997,9 @@
         <v>designs/81.jpg</v>
       </c>
       <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.6">
+      <c r="H68" s="37"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -2904,8 +3016,9 @@
         <v>designs/82.jpg</v>
       </c>
       <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.6">
+      <c r="H69" s="37"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -2924,8 +3037,9 @@
         <v>designs/83.jpg</v>
       </c>
       <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.6">
+      <c r="H70" s="37"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -2942,26 +3056,35 @@
         <v>designs/84.jpg</v>
       </c>
       <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.6">
+      <c r="H71" s="37"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" t="str">
+      <c r="D72" s="41"/>
+      <c r="E72" s="42" t="str">
         <f t="shared" si="5"/>
         <v>designs/85.jpg</v>
       </c>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.6">
+      <c r="F72" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -2980,8 +3103,9 @@
         <v>designs/86.jpg</v>
       </c>
       <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.6">
+      <c r="H73" s="37"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -3000,8 +3124,9 @@
         <v>designs/87.jpg</v>
       </c>
       <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.6">
+      <c r="H74" s="37"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -3017,8 +3142,9 @@
         <v>designs/88.jpg</v>
       </c>
       <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.6">
+      <c r="H75" s="37"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -3034,8 +3160,9 @@
         <v>designs/89.jpg</v>
       </c>
       <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.6">
+      <c r="H76" s="37"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -3050,8 +3177,9 @@
         <v>142</v>
       </c>
       <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.6">
+      <c r="H77" s="37"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -3067,8 +3195,9 @@
         <v>designs/91.jpg</v>
       </c>
       <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.6">
+      <c r="H78" s="37"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -3084,8 +3213,9 @@
         <v>designs/92.jpg</v>
       </c>
       <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.6">
+      <c r="H79" s="37"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -3101,8 +3231,9 @@
         <v>designs/93.jpg</v>
       </c>
       <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.6">
+      <c r="H80" s="37"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -3118,8 +3249,9 @@
         <v>designs/94.jpg</v>
       </c>
       <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.6">
+      <c r="H81" s="37"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -3135,8 +3267,9 @@
         <v>designs/95.jpg</v>
       </c>
       <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.6">
+      <c r="H82" s="37"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -3152,8 +3285,9 @@
         <v>designs/96.jpg</v>
       </c>
       <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.6">
+      <c r="H83" s="37"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -3169,8 +3303,9 @@
         <v>designs/97.jpg</v>
       </c>
       <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.6">
+      <c r="H84" s="37"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -3186,8 +3321,9 @@
         <v>designs/98.jpg</v>
       </c>
       <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.6">
+      <c r="H85" s="37"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -3203,8 +3339,9 @@
         <v>designs/99.jpg</v>
       </c>
       <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.6">
+      <c r="H86" s="37"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3220,8 +3357,9 @@
         <v>designs/100.jpg</v>
       </c>
       <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.6">
+      <c r="H87" s="37"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -3237,8 +3375,9 @@
         <v>designs/101.jpg</v>
       </c>
       <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.6">
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -3254,8 +3393,9 @@
         <v>designs/102.jpg</v>
       </c>
       <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.6">
+      <c r="H89" s="37"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -3271,8 +3411,9 @@
         <v>designs/103.jpg</v>
       </c>
       <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="37"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -3288,8 +3429,9 @@
         <v>designs/104.jpg</v>
       </c>
       <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.6">
+      <c r="H91" s="37"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -3305,8 +3447,9 @@
         <v>designs/105.jpg</v>
       </c>
       <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.6">
+      <c r="H92" s="37"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -3322,8 +3465,9 @@
         <v>designs/106.jpg</v>
       </c>
       <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.6">
+      <c r="H93" s="37"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -3340,8 +3484,9 @@
         <v>designs/107.jpg</v>
       </c>
       <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.6">
+      <c r="H94" s="37"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -3358,8 +3503,9 @@
         <v>designs/108.jpg</v>
       </c>
       <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.6">
+      <c r="H95" s="37"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -3376,8 +3522,9 @@
         <v>designs/109.jpg</v>
       </c>
       <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="1:7" ht="15.6">
+      <c r="H96" s="37"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -3394,8 +3541,9 @@
         <v>designs/110.jpg</v>
       </c>
       <c r="G97" s="15"/>
-    </row>
-    <row r="98" spans="1:7" ht="15.6">
+      <c r="H97" s="37"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98">
         <f t="shared" ref="A98:A140" si="6">ROW() - 1</f>
         <v>97</v>
@@ -3412,8 +3560,9 @@
         <v>designs/111.jpg</v>
       </c>
       <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="1:7" ht="15.6">
+      <c r="H98" s="37"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -3430,8 +3579,9 @@
         <v>designs/112.jpg</v>
       </c>
       <c r="G99" s="15"/>
-    </row>
-    <row r="100" spans="1:7" ht="15.6">
+      <c r="H99" s="37"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -3448,8 +3598,9 @@
         <v>designs/113.jpg</v>
       </c>
       <c r="G100" s="15"/>
-    </row>
-    <row r="101" spans="1:7" ht="15.6">
+      <c r="H100" s="37"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -3466,8 +3617,9 @@
         <v>designs/114.jpg</v>
       </c>
       <c r="G101" s="15"/>
-    </row>
-    <row r="102" spans="1:7" ht="15.6">
+      <c r="H101" s="37"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -3484,8 +3636,9 @@
         <v>designs/115.jpg</v>
       </c>
       <c r="G102" s="15"/>
-    </row>
-    <row r="103" spans="1:7" ht="15.6">
+      <c r="H102" s="37"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -3502,8 +3655,9 @@
         <v>designs/116.jpg</v>
       </c>
       <c r="G103" s="15"/>
-    </row>
-    <row r="104" spans="1:7" ht="15.6">
+      <c r="H103" s="37"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -3520,8 +3674,9 @@
         <v>designs/117.jpg</v>
       </c>
       <c r="G104" s="15"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.6">
+      <c r="H104" s="37"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -3538,8 +3693,9 @@
         <v>designs/118.jpg</v>
       </c>
       <c r="G105" s="15"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="37"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <f t="shared" si="6"/>
         <v>105</v>
@@ -3555,8 +3711,9 @@
         <v>designs/119.jpg</v>
       </c>
       <c r="G106" s="15"/>
-    </row>
-    <row r="107" spans="1:7" ht="15.6">
+      <c r="H106" s="37"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -3573,8 +3730,9 @@
         <v>designs/120.jpg</v>
       </c>
       <c r="G107" s="15"/>
-    </row>
-    <row r="108" spans="1:7" ht="15.6">
+      <c r="H107" s="37"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -3591,8 +3749,9 @@
         <v>designs/121.jpg</v>
       </c>
       <c r="G108" s="15"/>
-    </row>
-    <row r="109" spans="1:7" ht="15.6">
+      <c r="H108" s="37"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -3609,8 +3768,9 @@
         <v>designs/122.jpg</v>
       </c>
       <c r="G109" s="15"/>
-    </row>
-    <row r="110" spans="1:7" ht="15.6">
+      <c r="H109" s="37"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -3621,8 +3781,9 @@
         <v>designs/123.jpg</v>
       </c>
       <c r="G110" s="15"/>
-    </row>
-    <row r="111" spans="1:7" ht="15.6">
+      <c r="H110" s="37"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -3639,8 +3800,9 @@
         <v>designs/124.jpg</v>
       </c>
       <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.6">
+      <c r="H111" s="37"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -3657,8 +3819,9 @@
         <v>designs/125.jpg</v>
       </c>
       <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:7" ht="15.6">
+      <c r="H112" s="37"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -3675,8 +3838,9 @@
         <v>designs/126.jpg</v>
       </c>
       <c r="G113" s="15"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.6">
+      <c r="H113" s="37"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -3693,8 +3857,9 @@
         <v>designs/127.jpg</v>
       </c>
       <c r="G114" s="15"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.6">
+      <c r="H114" s="37"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -3711,8 +3876,9 @@
         <v>designs/128.jpg</v>
       </c>
       <c r="G115" s="15"/>
-    </row>
-    <row r="116" spans="1:7" ht="15.6">
+      <c r="H115" s="37"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -3729,8 +3895,9 @@
         <v>designs/129.jpg</v>
       </c>
       <c r="G116" s="15"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.6">
+      <c r="H116" s="37"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -3747,8 +3914,9 @@
         <v>designs/130.jpg</v>
       </c>
       <c r="G117" s="15"/>
-    </row>
-    <row r="118" spans="1:7" ht="15.6">
+      <c r="H117" s="37"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>117</v>
@@ -3765,8 +3933,9 @@
         <v>designs/131.jpg</v>
       </c>
       <c r="G118" s="15"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.6">
+      <c r="H118" s="37"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>118</v>
@@ -3783,8 +3952,9 @@
         <v>designs/132.jpg</v>
       </c>
       <c r="G119" s="15"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.6">
+      <c r="H119" s="37"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -3801,8 +3971,9 @@
         <v>designs/133.jpg</v>
       </c>
       <c r="G120" s="15"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.6">
+      <c r="H120" s="37"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.6">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -3819,8 +3990,9 @@
         <v>designs/134.jpg</v>
       </c>
       <c r="G121" s="15"/>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="37"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <f t="shared" si="6"/>
         <v>121</v>
@@ -3837,8 +4009,9 @@
         <v>designs/135.jpg</v>
       </c>
       <c r="G122" s="15"/>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="37"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <f t="shared" si="6"/>
         <v>122</v>
@@ -3855,8 +4028,9 @@
         <v>designs/136.jpg</v>
       </c>
       <c r="G123" s="15"/>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="37"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <f t="shared" si="6"/>
         <v>123</v>
@@ -3872,8 +4046,9 @@
         <v>designs/137.jpg</v>
       </c>
       <c r="G124" s="15"/>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="37"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <f t="shared" si="6"/>
         <v>124</v>
@@ -3885,8 +4060,9 @@
         <v>designs/138.jpg</v>
       </c>
       <c r="G125" s="15"/>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" s="37"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <f t="shared" si="6"/>
         <v>125</v>
@@ -3898,8 +4074,9 @@
         <v>designs/139.jpg</v>
       </c>
       <c r="G126" s="15"/>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="37"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <f t="shared" si="6"/>
         <v>126</v>
@@ -3911,8 +4088,9 @@
         <v>designs/140.jpg</v>
       </c>
       <c r="G127" s="15"/>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="37"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <f t="shared" si="6"/>
         <v>127</v>
@@ -3924,8 +4102,9 @@
         <v>designs/141.jpg</v>
       </c>
       <c r="G128" s="15"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="37"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <f t="shared" si="6"/>
         <v>128</v>
@@ -3937,8 +4116,9 @@
         <v>designs/142.jpg</v>
       </c>
       <c r="G129" s="15"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="37"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <f t="shared" si="6"/>
         <v>129</v>
@@ -3950,8 +4130,9 @@
         <v>designs/143.jpg</v>
       </c>
       <c r="G130" s="15"/>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="37"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -3963,8 +4144,9 @@
         <v>designs/144.jpg</v>
       </c>
       <c r="G131" s="15"/>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="37"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -3976,8 +4158,9 @@
         <v>designs/145.jpg</v>
       </c>
       <c r="G132" s="15"/>
-    </row>
-    <row r="133" spans="1:7" ht="15.6">
+      <c r="H132" s="37"/>
+    </row>
+    <row r="133" spans="1:8" ht="15.6">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -3989,8 +4172,9 @@
         <v>designs/146.jpg</v>
       </c>
       <c r="G133" s="15"/>
-    </row>
-    <row r="134" spans="1:7" ht="15.6">
+      <c r="H133" s="37"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.6">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -4002,8 +4186,9 @@
         <v>designs/147.jpg</v>
       </c>
       <c r="G134" s="15"/>
-    </row>
-    <row r="135" spans="1:7" ht="15">
+      <c r="H134" s="37"/>
+    </row>
+    <row r="135" spans="1:8" ht="15">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -4015,8 +4200,9 @@
         <v>designs/148.jpg</v>
       </c>
       <c r="G135" s="15"/>
-    </row>
-    <row r="136" spans="1:7" ht="15">
+      <c r="H135" s="37"/>
+    </row>
+    <row r="136" spans="1:8" ht="15">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -4028,8 +4214,9 @@
         <v>designs/149.jpg</v>
       </c>
       <c r="G136" s="15"/>
-    </row>
-    <row r="137" spans="1:7" ht="15">
+      <c r="H136" s="37"/>
+    </row>
+    <row r="137" spans="1:8" ht="15">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -4041,8 +4228,9 @@
         <v>designs/150.jpg</v>
       </c>
       <c r="G137" s="15"/>
-    </row>
-    <row r="138" spans="1:7" ht="15">
+      <c r="H137" s="37"/>
+    </row>
+    <row r="138" spans="1:8" ht="15">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -4054,8 +4242,9 @@
         <v>designs/151.jpg</v>
       </c>
       <c r="G138" s="15"/>
-    </row>
-    <row r="139" spans="1:7" ht="15">
+      <c r="H138" s="37"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.6" thickBot="1">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -4067,21 +4256,30 @@
         <v>designs/152.jpg</v>
       </c>
       <c r="G139" s="15"/>
-    </row>
-    <row r="140" spans="1:7" ht="15">
+      <c r="H139" s="37"/>
+    </row>
+    <row r="140" spans="1:8" ht="16.2" thickBot="1">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="13"/>
+      <c r="B140" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>280</v>
+      </c>
       <c r="E140" t="str">
         <f t="shared" si="8"/>
         <v>designs/153.jpg</v>
       </c>
       <c r="G140" s="15"/>
-    </row>
-    <row r="141" spans="1:7" ht="15">
+      <c r="H140" s="37"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.6" thickBot="1">
       <c r="A141">
         <f t="shared" ref="A141:A147" si="9">ROW() - 1</f>
         <v>140</v>
@@ -4093,8 +4291,9 @@
         <v>designs/154.jpg</v>
       </c>
       <c r="G141" s="15"/>
-    </row>
-    <row r="142" spans="1:7" ht="15">
+      <c r="H141" s="37"/>
+    </row>
+    <row r="142" spans="1:8" ht="15">
       <c r="A142">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -4106,8 +4305,9 @@
         <v>designs/155.jpg</v>
       </c>
       <c r="G142" s="15"/>
-    </row>
-    <row r="143" spans="1:7" ht="15">
+      <c r="H142" s="37"/>
+    </row>
+    <row r="143" spans="1:8" ht="15">
       <c r="A143">
         <f t="shared" si="9"/>
         <v>142</v>
@@ -4119,8 +4319,9 @@
         <v>designs/156.jpg</v>
       </c>
       <c r="G143" s="15"/>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" s="37"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <f t="shared" si="9"/>
         <v>143</v>
@@ -4131,8 +4332,9 @@
         <v>designs/157.jpg</v>
       </c>
       <c r="G144" s="15"/>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="37"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <f t="shared" si="9"/>
         <v>144</v>
@@ -4143,8 +4345,9 @@
         <v>designs/158.jpg</v>
       </c>
       <c r="G145" s="15"/>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" s="37"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <f t="shared" si="9"/>
         <v>145</v>
@@ -4155,8 +4358,9 @@
         <v>designs/159.jpg</v>
       </c>
       <c r="G146" s="15"/>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="37"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <f t="shared" si="9"/>
         <v>146</v>
@@ -4167,8 +4371,9 @@
         <v>designs/160.jpg</v>
       </c>
       <c r="G147" s="15"/>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="37"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <f t="shared" ref="A148:A153" si="10">ROW() - 1</f>
         <v>147</v>
@@ -4181,8 +4386,9 @@
         <v>designs/161.jpg</v>
       </c>
       <c r="G148" s="15"/>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="37"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <f t="shared" si="10"/>
         <v>148</v>
@@ -4195,8 +4401,9 @@
         <v>designs/162.jpg</v>
       </c>
       <c r="G149" s="15"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="37"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <f t="shared" si="10"/>
         <v>149</v>
@@ -4209,8 +4416,9 @@
         <v>designs/163.jpg</v>
       </c>
       <c r="G150" s="15"/>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" s="37"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <f t="shared" si="10"/>
         <v>150</v>
@@ -4223,8 +4431,9 @@
         <v>designs/164.jpg</v>
       </c>
       <c r="G151" s="15"/>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" s="37"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <f t="shared" si="10"/>
         <v>151</v>
@@ -4237,8 +4446,9 @@
         <v>designs/165.jpg</v>
       </c>
       <c r="G152" s="15"/>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" s="37"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <f t="shared" si="10"/>
         <v>152</v>
@@ -4251,8 +4461,9 @@
         <v>designs/166.jpg</v>
       </c>
       <c r="G153" s="15"/>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" s="37"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <f>ROW() - 1</f>
         <v>153</v>
@@ -4264,8 +4475,9 @@
         <v>designs/167.jpg</v>
       </c>
       <c r="G154" s="15"/>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="37"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4274,8 +4486,9 @@
         <v>designs/168.jpg</v>
       </c>
       <c r="G155" s="15"/>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="37"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4286,8 +4499,9 @@
         <v>designs/169.jpg</v>
       </c>
       <c r="G156" s="15"/>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="37"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <f t="shared" ref="A157:A160" si="11">ROW() - 1</f>
         <v>156</v>
@@ -4297,8 +4511,9 @@
         <v>designs/170.jpg</v>
       </c>
       <c r="G157" s="15"/>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" s="37"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <f t="shared" si="11"/>
         <v>157</v>
@@ -4308,8 +4523,9 @@
         <v>designs/171.jpg</v>
       </c>
       <c r="G158" s="15"/>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="37"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <f t="shared" si="11"/>
         <v>158</v>
@@ -4319,8 +4535,9 @@
         <v>designs/172.jpg</v>
       </c>
       <c r="G159" s="15"/>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="37"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <f t="shared" si="11"/>
         <v>159</v>
@@ -4329,8 +4546,9 @@
         <v>165</v>
       </c>
       <c r="G160" s="15"/>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" s="37"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <f t="shared" ref="A161:A173" si="12">ROW() - 1</f>
         <v>160</v>
@@ -4339,8 +4557,9 @@
         <v>166</v>
       </c>
       <c r="G161" s="15"/>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="37"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <f t="shared" si="12"/>
         <v>161</v>
@@ -4349,8 +4568,9 @@
         <v>167</v>
       </c>
       <c r="G162" s="15"/>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" s="37"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <f t="shared" si="12"/>
         <v>162</v>
@@ -4359,8 +4579,9 @@
         <v>168</v>
       </c>
       <c r="G163" s="15"/>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163" s="37"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <f t="shared" si="12"/>
         <v>163</v>
@@ -4369,8 +4590,9 @@
         <v>169</v>
       </c>
       <c r="G164" s="15"/>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" s="37"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <f t="shared" si="12"/>
         <v>164</v>
@@ -4380,8 +4602,9 @@
         <v>170</v>
       </c>
       <c r="G165" s="15"/>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" s="37"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <f t="shared" si="12"/>
         <v>165</v>
@@ -4391,8 +4614,9 @@
         <v>171</v>
       </c>
       <c r="G166" s="15"/>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="37"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <f t="shared" si="12"/>
         <v>166</v>
@@ -4402,8 +4626,9 @@
         <v>172</v>
       </c>
       <c r="G167" s="15"/>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167" s="37"/>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <f t="shared" si="12"/>
         <v>167</v>
@@ -4412,8 +4637,9 @@
         <v>173</v>
       </c>
       <c r="G168" s="15"/>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" s="37"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <f t="shared" si="12"/>
         <v>168</v>
@@ -4423,8 +4649,9 @@
         <v>174</v>
       </c>
       <c r="G169" s="15"/>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" s="37"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <f t="shared" si="12"/>
         <v>169</v>
@@ -4434,8 +4661,9 @@
         <v>175</v>
       </c>
       <c r="G170" s="15"/>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" s="37"/>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <f t="shared" si="12"/>
         <v>170</v>
@@ -4445,8 +4673,9 @@
         <v>176</v>
       </c>
       <c r="G171" s="15"/>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="37"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <f t="shared" si="12"/>
         <v>171</v>
@@ -4456,8 +4685,9 @@
         <v>177</v>
       </c>
       <c r="G172" s="15"/>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" s="37"/>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <f t="shared" si="12"/>
         <v>172</v>
@@ -4467,14 +4697,15 @@
         <v>178</v>
       </c>
       <c r="G173" s="15"/>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173" s="37"/>
+    </row>
+    <row r="174" spans="1:8">
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8">
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="7:7">
@@ -4490,6 +4721,7 @@
       <c r="G180" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D74" r:id="rId1" xr:uid="{7299F3DB-9941-4949-8C95-5BCF8A7F65EA}"/>
     <hyperlink ref="D98" r:id="rId2" xr:uid="{B9AC0AF4-85B6-463C-9342-3B8CCB8F2916}"/>
@@ -4525,10 +4757,11 @@
     <hyperlink ref="D48" r:id="rId32" xr:uid="{96BF6809-7913-4933-AE65-A1CC94949B04}"/>
     <hyperlink ref="D51" r:id="rId33" xr:uid="{CA24AEAB-160A-4553-9F01-EDAC6FC9BB48}"/>
     <hyperlink ref="D52" r:id="rId34" xr:uid="{8A95F82B-885B-4436-A026-3B491B3DE0FB}"/>
+    <hyperlink ref="H72" r:id="rId35" xr:uid="{DB510A56-11F7-41AD-B86C-43AD36B0227F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>